--- a/dairyclimatemodel2/data/household_data.xlsx
+++ b/dairyclimatemodel2/data/household_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\household_ghg_model\household_ghg_model\dairyclimatemodel2\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{60F75936-19BF-49C8-8C33-79F8B339C07F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="898" firstSheet="1" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="898" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="7" r:id="rId1"/>
@@ -30,7 +36,7 @@
     <sheet name="crop_costs" sheetId="36" r:id="rId21"/>
     <sheet name="labour_rate" sheetId="38" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -672,7 +678,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1100,14 +1106,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1542,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AW15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2751,7 +2757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -4554,7 +4560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4694,7 +4700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5217,24 +5223,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4"/>
-    <hyperlink ref="G2" r:id="rId5"/>
-    <hyperlink ref="I2" r:id="rId6"/>
-    <hyperlink ref="J2" r:id="rId7"/>
-    <hyperlink ref="K2" r:id="rId8"/>
-    <hyperlink ref="O2" r:id="rId9"/>
-    <hyperlink ref="M2" r:id="rId10"/>
-    <hyperlink ref="B2" r:id="rId11"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
+    <hyperlink ref="G2" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
+    <hyperlink ref="I2" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
+    <hyperlink ref="J2" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
+    <hyperlink ref="K2" r:id="rId8" xr:uid="{00000000-0004-0000-0C00-000007000000}"/>
+    <hyperlink ref="O2" r:id="rId9" xr:uid="{00000000-0004-0000-0C00-000008000000}"/>
+    <hyperlink ref="M2" r:id="rId10" xr:uid="{00000000-0004-0000-0C00-000009000000}"/>
+    <hyperlink ref="B2" r:id="rId11" xr:uid="{00000000-0004-0000-0C00-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:V146"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -7728,7 +7734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8243,10 +8249,10 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:O433"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -17160,7 +17166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView topLeftCell="A116" workbookViewId="0">
@@ -19727,7 +19733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19971,7 +19977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20253,7 +20259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20342,7 +20348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20764,7 +20770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20927,7 +20933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20990,11 +20996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21036,7 +21042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21085,7 +21091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21131,7 +21137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21177,7 +21183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21223,7 +21229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21320,7 +21326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AW31"/>
   <sheetViews>
     <sheetView topLeftCell="AA1" workbookViewId="0">

--- a/dairyclimatemodel2/data/household_data.xlsx
+++ b/dairyclimatemodel2/data/household_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\household_ghg_model\household_ghg_model\dairyclimatemodel2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{60F75936-19BF-49C8-8C33-79F8B339C07F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C3C6E894-DF8D-44A2-95AC-EBE0CE7F1C82}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="898" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="898" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="7" r:id="rId1"/>
@@ -8252,7 +8252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:O433"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A316" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -20936,7 +20936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
@@ -20999,7 +20999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -21027,7 +21027,7 @@
         <v>400000</v>
       </c>
       <c r="C2" s="32">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="D2" s="32">
         <v>400000</v>
@@ -21046,12 +21046,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -21076,7 +21077,7 @@
         <v>2500000</v>
       </c>
       <c r="C2" s="32">
-        <v>2500000</v>
+        <v>1500000</v>
       </c>
       <c r="D2" s="32">
         <v>2500000</v>

--- a/dairyclimatemodel2/data/household_data.xlsx
+++ b/dairyclimatemodel2/data/household_data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\household_ghg_model\household_ghg_model\dairyclimatemodel2\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C3C6E894-DF8D-44A2-95AC-EBE0CE7F1C82}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="898" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="898" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="7" r:id="rId1"/>
@@ -36,7 +30,7 @@
     <sheet name="crop_costs" sheetId="36" r:id="rId21"/>
     <sheet name="labour_rate" sheetId="38" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -678,7 +672,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1106,32 +1100,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -1142,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1362,7 +1356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1522,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1548,14 +1542,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2757,22 +2751,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1" s="35" t="s">
         <v>106</v>
       </c>
@@ -2782,7 +2776,7 @@
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2826,7 +2820,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>35</v>
       </c>
@@ -2864,7 +2858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2930,7 +2924,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2980,7 +2974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3031,7 +3025,7 @@
         <v>5.2437500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3082,7 +3076,7 @@
         <v>20.975000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3126,7 +3120,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3170,7 +3164,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3214,7 +3208,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3267,7 +3261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3320,7 +3314,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3373,7 +3367,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3426,7 +3420,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3470,7 +3464,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>A4</f>
         <v>m01</v>
@@ -3515,7 +3509,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" ref="A17:A39" si="0">A5</f>
         <v>m02</v>
@@ -3560,7 +3554,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>m03</v>
@@ -3605,7 +3599,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>m04</v>
@@ -3650,7 +3644,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>m05</v>
@@ -3695,7 +3689,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>m06</v>
@@ -3740,7 +3734,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>m07</v>
@@ -3785,7 +3779,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>m08</v>
@@ -3830,7 +3824,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>m09</v>
@@ -3875,7 +3869,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>m10</v>
@@ -3920,7 +3914,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>m11</v>
@@ -3965,7 +3959,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>m12</v>
@@ -4010,7 +4004,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>m01</v>
@@ -4055,7 +4049,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>m02</v>
@@ -4100,7 +4094,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>m03</v>
@@ -4145,7 +4139,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>m04</v>
@@ -4190,7 +4184,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>m05</v>
@@ -4235,7 +4229,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>m06</v>
@@ -4280,7 +4274,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>m07</v>
@@ -4325,7 +4319,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>m08</v>
@@ -4370,7 +4364,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>m09</v>
@@ -4415,7 +4409,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>m10</v>
@@ -4460,7 +4454,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>m11</v>
@@ -4505,7 +4499,7 @@
         <v>37.755000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>m12</v>
@@ -4560,14 +4554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
@@ -4700,16 +4694,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -5223,24 +5217,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
-    <hyperlink ref="G2" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
-    <hyperlink ref="I2" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
-    <hyperlink ref="J2" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
-    <hyperlink ref="K2" r:id="rId8" xr:uid="{00000000-0004-0000-0C00-000007000000}"/>
-    <hyperlink ref="O2" r:id="rId9" xr:uid="{00000000-0004-0000-0C00-000008000000}"/>
-    <hyperlink ref="M2" r:id="rId10" xr:uid="{00000000-0004-0000-0C00-000009000000}"/>
-    <hyperlink ref="B2" r:id="rId11" xr:uid="{00000000-0004-0000-0C00-00000A000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="G2" r:id="rId5"/>
+    <hyperlink ref="I2" r:id="rId6"/>
+    <hyperlink ref="J2" r:id="rId7"/>
+    <hyperlink ref="K2" r:id="rId8"/>
+    <hyperlink ref="O2" r:id="rId9"/>
+    <hyperlink ref="M2" r:id="rId10"/>
+    <hyperlink ref="B2" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V146"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -5250,13 +5244,13 @@
       <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>62</v>
       </c>
@@ -5291,7 +5285,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -5335,7 +5329,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -5374,7 +5368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -5416,7 +5410,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -5456,7 +5450,7 @@
       </c>
       <c r="N5" s="27"/>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -5494,7 +5488,7 @@
       </c>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -5536,7 +5530,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -5569,7 +5563,7 @@
       <c r="O8" s="3"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A20" si="1">A3</f>
         <v>adultf_loc</v>
@@ -5610,7 +5604,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="1"/>
         <v>youngm_loc</v>
@@ -5662,7 +5656,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="1"/>
         <v>youngf_loc</v>
@@ -5715,7 +5709,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="1"/>
         <v>weanerm_loc</v>
@@ -5757,7 +5751,7 @@
       <c r="N12" s="29"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="1"/>
         <v>weanerf_loc</v>
@@ -5800,7 +5794,7 @@
       <c r="O13" s="3"/>
       <c r="S13" s="24"/>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
         <v>reprod_loc</v>
@@ -5833,7 +5827,7 @@
       <c r="N14" s="27"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
         <v>adultf_loc</v>
@@ -5881,7 +5875,7 @@
         <v>5.081967213114754</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
         <v>youngm_loc</v>
@@ -5933,7 +5927,7 @@
         <v>7.2131147540983607</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="1"/>
         <v>youngf_loc</v>
@@ -5979,7 +5973,7 @@
       <c r="N17" s="27"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="1"/>
         <v>weanerm_loc</v>
@@ -6021,7 +6015,7 @@
       <c r="N18" s="27"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="1"/>
         <v>weanerf_loc</v>
@@ -6063,7 +6057,7 @@
       <c r="N19" s="27"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
         <v>reprod_loc</v>
@@ -6101,7 +6095,7 @@
       <c r="N20" s="27"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -6141,7 +6135,7 @@
       </c>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -6182,7 +6176,7 @@
       <c r="N22" s="27"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -6223,7 +6217,7 @@
       <c r="N23" s="27"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -6262,7 +6256,7 @@
       <c r="N24" s="27"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -6301,7 +6295,7 @@
       <c r="N25" s="27"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -6333,7 +6327,7 @@
       <c r="N26" s="27"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" ref="A27:A38" si="4">A21</f>
         <v>adultf_imp</v>
@@ -6376,7 +6370,7 @@
       </c>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="4"/>
         <v>youngm_imp</v>
@@ -6422,7 +6416,7 @@
       <c r="N28" s="27"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="4"/>
         <v>youngf_imp</v>
@@ -6468,7 +6462,7 @@
       <c r="N29" s="27"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="4"/>
         <v>weanerm_imp</v>
@@ -6510,7 +6504,7 @@
       <c r="N30" s="29"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="4"/>
         <v>weanerf_imp</v>
@@ -6552,7 +6546,7 @@
       <c r="N31" s="27"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="4"/>
         <v>reprod_imp</v>
@@ -6585,7 +6579,7 @@
       <c r="N32" s="27"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="4"/>
         <v>adultf_imp</v>
@@ -6627,7 +6621,7 @@
       </c>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="4"/>
         <v>youngm_imp</v>
@@ -6673,7 +6667,7 @@
       <c r="N34" s="27"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="4"/>
         <v>youngf_imp</v>
@@ -6719,7 +6713,7 @@
       <c r="N35" s="27"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="4"/>
         <v>weanerm_imp</v>
@@ -6761,7 +6755,7 @@
       <c r="N36" s="27"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="4"/>
         <v>weanerf_imp</v>
@@ -6803,7 +6797,7 @@
       <c r="N37" s="27"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="4"/>
         <v>reprod_imp</v>
@@ -6841,7 +6835,7 @@
       <c r="N38" s="27"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G39" s="14"/>
       <c r="H39" s="16"/>
       <c r="I39" s="14"/>
@@ -6851,7 +6845,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G40" s="14"/>
       <c r="H40" s="16"/>
       <c r="I40" s="14"/>
@@ -6861,7 +6855,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G41" s="14"/>
       <c r="H41" s="16"/>
       <c r="I41" s="14"/>
@@ -6871,7 +6865,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G42" s="14"/>
       <c r="H42" s="16"/>
       <c r="I42" s="14"/>
@@ -6881,7 +6875,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>87</v>
       </c>
@@ -6894,7 +6888,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>110</v>
       </c>
@@ -6911,7 +6905,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>111</v>
       </c>
@@ -6928,7 +6922,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>112</v>
       </c>
@@ -6945,7 +6939,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>88</v>
       </c>
@@ -6958,7 +6952,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>9</v>
       </c>
@@ -6971,7 +6965,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G49" s="14"/>
       <c r="H49" s="16"/>
       <c r="I49" s="14"/>
@@ -6981,7 +6975,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G50" s="14"/>
       <c r="H50" s="16"/>
       <c r="I50" s="14"/>
@@ -6991,7 +6985,7 @@
       <c r="N50" s="14"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G51" s="14"/>
       <c r="H51" s="16"/>
       <c r="I51" s="14"/>
@@ -7001,7 +6995,7 @@
       <c r="N51" s="14"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G52" s="14"/>
       <c r="H52" s="16"/>
       <c r="I52" s="14"/>
@@ -7011,7 +7005,7 @@
       <c r="N52" s="14"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G53" s="14"/>
       <c r="H53" s="16"/>
       <c r="I53" s="14"/>
@@ -7021,7 +7015,7 @@
       <c r="N53" s="14"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G54" s="14"/>
       <c r="H54" s="16"/>
       <c r="I54" s="14"/>
@@ -7031,7 +7025,7 @@
       <c r="N54" s="14"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G55" s="14"/>
       <c r="H55" s="16"/>
       <c r="I55" s="14"/>
@@ -7041,7 +7035,7 @@
       <c r="N55" s="14"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G56" s="14"/>
       <c r="H56" s="16"/>
       <c r="I56" s="14"/>
@@ -7051,7 +7045,7 @@
       <c r="N56" s="14"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G57" s="14"/>
       <c r="H57" s="16"/>
       <c r="I57" s="14"/>
@@ -7061,7 +7055,7 @@
       <c r="N57" s="14"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G58" s="14"/>
       <c r="H58" s="16"/>
       <c r="I58" s="14"/>
@@ -7071,7 +7065,7 @@
       <c r="N58" s="14"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G59" s="14"/>
       <c r="H59" s="16"/>
       <c r="I59" s="14"/>
@@ -7081,7 +7075,7 @@
       <c r="N59" s="14"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G60" s="14"/>
       <c r="H60" s="16"/>
       <c r="I60" s="14"/>
@@ -7091,7 +7085,7 @@
       <c r="N60" s="14"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G61" s="14"/>
       <c r="H61" s="16"/>
       <c r="I61" s="14"/>
@@ -7101,7 +7095,7 @@
       <c r="N61" s="14"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G62" s="14"/>
       <c r="H62" s="16"/>
       <c r="I62" s="14"/>
@@ -7111,7 +7105,7 @@
       <c r="N62" s="14"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G63" s="14"/>
       <c r="H63" s="16"/>
       <c r="I63" s="14"/>
@@ -7121,7 +7115,7 @@
       <c r="N63" s="14"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G64" s="14"/>
       <c r="H64" s="16"/>
       <c r="I64" s="14"/>
@@ -7131,7 +7125,7 @@
       <c r="N64" s="14"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G65" s="14"/>
       <c r="H65" s="16"/>
       <c r="I65" s="14"/>
@@ -7141,7 +7135,7 @@
       <c r="N65" s="14"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G66" s="14"/>
       <c r="H66" s="16"/>
       <c r="I66" s="14"/>
@@ -7151,7 +7145,7 @@
       <c r="N66" s="14"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G67" s="14"/>
       <c r="H67" s="16"/>
       <c r="I67" s="14"/>
@@ -7161,7 +7155,7 @@
       <c r="N67" s="14"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G68" s="14"/>
       <c r="H68" s="16"/>
       <c r="I68" s="14"/>
@@ -7171,7 +7165,7 @@
       <c r="N68" s="14"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G69" s="14"/>
       <c r="H69" s="16"/>
       <c r="I69" s="14"/>
@@ -7181,7 +7175,7 @@
       <c r="N69" s="14"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G70" s="14"/>
       <c r="H70" s="16"/>
       <c r="I70" s="14"/>
@@ -7191,7 +7185,7 @@
       <c r="N70" s="14"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G71" s="14"/>
       <c r="H71" s="16"/>
       <c r="I71" s="14"/>
@@ -7201,7 +7195,7 @@
       <c r="N71" s="14"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G72" s="14"/>
       <c r="H72" s="16"/>
       <c r="I72" s="14"/>
@@ -7211,7 +7205,7 @@
       <c r="N72" s="14"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G73" s="14"/>
       <c r="H73" s="16"/>
       <c r="I73" s="14"/>
@@ -7221,7 +7215,7 @@
       <c r="N73" s="14"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G74" s="14"/>
       <c r="H74" s="16"/>
       <c r="I74" s="14"/>
@@ -7231,10 +7225,10 @@
       <c r="N74" s="14"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:15" x14ac:dyDescent="0.25">
       <c r="O75" s="3"/>
     </row>
-    <row r="93" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
       <c r="I93" s="14"/>
@@ -7243,7 +7237,7 @@
       <c r="M93" s="6"/>
       <c r="N93" s="14"/>
     </row>
-    <row r="94" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="G94" s="16"/>
@@ -7254,7 +7248,7 @@
       <c r="M94" s="6"/>
       <c r="N94" s="14"/>
     </row>
-    <row r="95" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="G95" s="16"/>
@@ -7265,7 +7259,7 @@
       <c r="M95" s="6"/>
       <c r="N95" s="14"/>
     </row>
-    <row r="96" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
       <c r="I96" s="14"/>
@@ -7274,7 +7268,7 @@
       <c r="M96" s="6"/>
       <c r="N96" s="14"/>
     </row>
-    <row r="97" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
       <c r="I97" s="14"/>
@@ -7283,7 +7277,7 @@
       <c r="M97" s="6"/>
       <c r="N97" s="14"/>
     </row>
-    <row r="98" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
       <c r="I98" s="14"/>
@@ -7292,7 +7286,7 @@
       <c r="M98" s="6"/>
       <c r="N98" s="14"/>
     </row>
-    <row r="99" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G99" s="14"/>
       <c r="H99" s="16"/>
       <c r="I99" s="14"/>
@@ -7301,7 +7295,7 @@
       <c r="M99" s="6"/>
       <c r="N99" s="14"/>
     </row>
-    <row r="100" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G100" s="14"/>
       <c r="H100" s="16"/>
       <c r="I100" s="14"/>
@@ -7310,7 +7304,7 @@
       <c r="M100" s="6"/>
       <c r="N100" s="14"/>
     </row>
-    <row r="101" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G101" s="14"/>
       <c r="H101" s="16"/>
       <c r="I101" s="14"/>
@@ -7319,7 +7313,7 @@
       <c r="M101" s="6"/>
       <c r="N101" s="14"/>
     </row>
-    <row r="102" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G102" s="14"/>
       <c r="H102" s="16"/>
       <c r="I102" s="14"/>
@@ -7328,7 +7322,7 @@
       <c r="M102" s="6"/>
       <c r="N102" s="14"/>
     </row>
-    <row r="103" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G103" s="14"/>
       <c r="H103" s="16"/>
       <c r="I103" s="14"/>
@@ -7337,7 +7331,7 @@
       <c r="M103" s="6"/>
       <c r="N103" s="14"/>
     </row>
-    <row r="104" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G104" s="14"/>
       <c r="H104" s="16"/>
       <c r="I104" s="14"/>
@@ -7346,7 +7340,7 @@
       <c r="M104" s="6"/>
       <c r="N104" s="14"/>
     </row>
-    <row r="105" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G105" s="14"/>
       <c r="H105" s="16"/>
       <c r="I105" s="14"/>
@@ -7355,7 +7349,7 @@
       <c r="M105" s="6"/>
       <c r="N105" s="14"/>
     </row>
-    <row r="106" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G106" s="14"/>
       <c r="H106" s="16"/>
       <c r="I106" s="14"/>
@@ -7364,7 +7358,7 @@
       <c r="M106" s="6"/>
       <c r="N106" s="14"/>
     </row>
-    <row r="107" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G107" s="14"/>
       <c r="H107" s="16"/>
       <c r="I107" s="14"/>
@@ -7373,7 +7367,7 @@
       <c r="M107" s="6"/>
       <c r="N107" s="14"/>
     </row>
-    <row r="108" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G108" s="14"/>
       <c r="H108" s="16"/>
       <c r="I108" s="14"/>
@@ -7382,7 +7376,7 @@
       <c r="M108" s="6"/>
       <c r="N108" s="14"/>
     </row>
-    <row r="109" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G109" s="14"/>
       <c r="H109" s="16"/>
       <c r="I109" s="14"/>
@@ -7391,7 +7385,7 @@
       <c r="M109" s="6"/>
       <c r="N109" s="14"/>
     </row>
-    <row r="110" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G110" s="14"/>
       <c r="H110" s="16"/>
       <c r="I110" s="14"/>
@@ -7400,7 +7394,7 @@
       <c r="M110" s="6"/>
       <c r="N110" s="14"/>
     </row>
-    <row r="111" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G111" s="14"/>
       <c r="H111" s="16"/>
       <c r="I111" s="14"/>
@@ -7409,7 +7403,7 @@
       <c r="M111" s="6"/>
       <c r="N111" s="14"/>
     </row>
-    <row r="112" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G112" s="14"/>
       <c r="H112" s="16"/>
       <c r="I112" s="14"/>
@@ -7418,7 +7412,7 @@
       <c r="M112" s="6"/>
       <c r="N112" s="14"/>
     </row>
-    <row r="113" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G113" s="14"/>
       <c r="H113" s="16"/>
       <c r="I113" s="14"/>
@@ -7427,7 +7421,7 @@
       <c r="M113" s="6"/>
       <c r="N113" s="14"/>
     </row>
-    <row r="114" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G114" s="14"/>
       <c r="H114" s="16"/>
       <c r="I114" s="14"/>
@@ -7436,7 +7430,7 @@
       <c r="M114" s="6"/>
       <c r="N114" s="14"/>
     </row>
-    <row r="115" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G115" s="14"/>
       <c r="H115" s="16"/>
       <c r="I115" s="14"/>
@@ -7445,7 +7439,7 @@
       <c r="M115" s="6"/>
       <c r="N115" s="14"/>
     </row>
-    <row r="116" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G116" s="14"/>
       <c r="H116" s="16"/>
       <c r="I116" s="14"/>
@@ -7454,7 +7448,7 @@
       <c r="M116" s="6"/>
       <c r="N116" s="14"/>
     </row>
-    <row r="117" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G117" s="14"/>
       <c r="H117" s="16"/>
       <c r="I117" s="14"/>
@@ -7463,7 +7457,7 @@
       <c r="M117" s="6"/>
       <c r="N117" s="14"/>
     </row>
-    <row r="118" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G118" s="14"/>
       <c r="H118" s="16"/>
       <c r="I118" s="14"/>
@@ -7472,7 +7466,7 @@
       <c r="M118" s="6"/>
       <c r="N118" s="14"/>
     </row>
-    <row r="119" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G119" s="14"/>
       <c r="H119" s="16"/>
       <c r="I119" s="14"/>
@@ -7481,7 +7475,7 @@
       <c r="M119" s="6"/>
       <c r="N119" s="14"/>
     </row>
-    <row r="120" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G120" s="14"/>
       <c r="H120" s="16"/>
       <c r="I120" s="14"/>
@@ -7490,7 +7484,7 @@
       <c r="M120" s="6"/>
       <c r="N120" s="14"/>
     </row>
-    <row r="121" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G121" s="14"/>
       <c r="H121" s="16"/>
       <c r="I121" s="14"/>
@@ -7499,7 +7493,7 @@
       <c r="M121" s="6"/>
       <c r="N121" s="14"/>
     </row>
-    <row r="122" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G122" s="14"/>
       <c r="H122" s="16"/>
       <c r="I122" s="14"/>
@@ -7508,7 +7502,7 @@
       <c r="M122" s="6"/>
       <c r="N122" s="14"/>
     </row>
-    <row r="123" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G123" s="14"/>
       <c r="H123" s="16"/>
       <c r="I123" s="14"/>
@@ -7517,7 +7511,7 @@
       <c r="M123" s="6"/>
       <c r="N123" s="14"/>
     </row>
-    <row r="124" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G124" s="14"/>
       <c r="H124" s="16"/>
       <c r="I124" s="14"/>
@@ -7526,7 +7520,7 @@
       <c r="M124" s="6"/>
       <c r="N124" s="14"/>
     </row>
-    <row r="125" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G125" s="14"/>
       <c r="H125" s="16"/>
       <c r="I125" s="14"/>
@@ -7535,7 +7529,7 @@
       <c r="M125" s="6"/>
       <c r="N125" s="14"/>
     </row>
-    <row r="126" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G126" s="14"/>
       <c r="H126" s="16"/>
       <c r="I126" s="14"/>
@@ -7544,7 +7538,7 @@
       <c r="M126" s="6"/>
       <c r="N126" s="14"/>
     </row>
-    <row r="127" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G127" s="14"/>
       <c r="H127" s="16"/>
       <c r="I127" s="14"/>
@@ -7553,7 +7547,7 @@
       <c r="M127" s="6"/>
       <c r="N127" s="14"/>
     </row>
-    <row r="128" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G128" s="14"/>
       <c r="H128" s="16"/>
       <c r="I128" s="14"/>
@@ -7562,7 +7556,7 @@
       <c r="M128" s="6"/>
       <c r="N128" s="14"/>
     </row>
-    <row r="129" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G129" s="14"/>
       <c r="H129" s="16"/>
       <c r="I129" s="14"/>
@@ -7571,7 +7565,7 @@
       <c r="M129" s="6"/>
       <c r="N129" s="14"/>
     </row>
-    <row r="130" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G130" s="14"/>
       <c r="H130" s="16"/>
       <c r="I130" s="14"/>
@@ -7580,7 +7574,7 @@
       <c r="M130" s="6"/>
       <c r="N130" s="14"/>
     </row>
-    <row r="131" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G131" s="14"/>
       <c r="H131" s="16"/>
       <c r="I131" s="14"/>
@@ -7589,7 +7583,7 @@
       <c r="M131" s="6"/>
       <c r="N131" s="14"/>
     </row>
-    <row r="132" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G132" s="14"/>
       <c r="H132" s="16"/>
       <c r="I132" s="14"/>
@@ -7598,7 +7592,7 @@
       <c r="M132" s="6"/>
       <c r="N132" s="14"/>
     </row>
-    <row r="133" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G133" s="14"/>
       <c r="H133" s="16"/>
       <c r="I133" s="14"/>
@@ -7607,7 +7601,7 @@
       <c r="M133" s="6"/>
       <c r="N133" s="14"/>
     </row>
-    <row r="134" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G134" s="14"/>
       <c r="H134" s="16"/>
       <c r="I134" s="14"/>
@@ -7616,7 +7610,7 @@
       <c r="M134" s="6"/>
       <c r="N134" s="14"/>
     </row>
-    <row r="135" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G135" s="14"/>
       <c r="H135" s="16"/>
       <c r="I135" s="14"/>
@@ -7625,7 +7619,7 @@
       <c r="M135" s="6"/>
       <c r="N135" s="14"/>
     </row>
-    <row r="136" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G136" s="14"/>
       <c r="H136" s="16"/>
       <c r="I136" s="14"/>
@@ -7634,7 +7628,7 @@
       <c r="M136" s="6"/>
       <c r="N136" s="14"/>
     </row>
-    <row r="137" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G137" s="14"/>
       <c r="H137" s="16"/>
       <c r="I137" s="14"/>
@@ -7643,7 +7637,7 @@
       <c r="M137" s="6"/>
       <c r="N137" s="14"/>
     </row>
-    <row r="138" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G138" s="14"/>
       <c r="H138" s="16"/>
       <c r="I138" s="14"/>
@@ -7652,7 +7646,7 @@
       <c r="M138" s="6"/>
       <c r="N138" s="14"/>
     </row>
-    <row r="139" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G139" s="14"/>
       <c r="H139" s="16"/>
       <c r="I139" s="14"/>
@@ -7661,7 +7655,7 @@
       <c r="M139" s="6"/>
       <c r="N139" s="14"/>
     </row>
-    <row r="140" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G140" s="14"/>
       <c r="H140" s="16"/>
       <c r="I140" s="14"/>
@@ -7670,7 +7664,7 @@
       <c r="M140" s="6"/>
       <c r="N140" s="14"/>
     </row>
-    <row r="141" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G141" s="14"/>
       <c r="H141" s="16"/>
       <c r="I141" s="14"/>
@@ -7679,7 +7673,7 @@
       <c r="M141" s="6"/>
       <c r="N141" s="14"/>
     </row>
-    <row r="142" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G142" s="14"/>
       <c r="H142" s="16"/>
       <c r="I142" s="14"/>
@@ -7688,7 +7682,7 @@
       <c r="M142" s="6"/>
       <c r="N142" s="14"/>
     </row>
-    <row r="143" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G143" s="14"/>
       <c r="H143" s="16"/>
       <c r="I143" s="14"/>
@@ -7697,7 +7691,7 @@
       <c r="M143" s="6"/>
       <c r="N143" s="14"/>
     </row>
-    <row r="144" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G144" s="14"/>
       <c r="H144" s="16"/>
       <c r="I144" s="14"/>
@@ -7706,7 +7700,7 @@
       <c r="M144" s="6"/>
       <c r="N144" s="14"/>
     </row>
-    <row r="145" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G145" s="14"/>
       <c r="H145" s="16"/>
       <c r="I145" s="14"/>
@@ -7715,7 +7709,7 @@
       <c r="M145" s="6"/>
       <c r="N145" s="14"/>
     </row>
-    <row r="146" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G146" s="14"/>
       <c r="H146" s="16"/>
       <c r="I146" s="14"/>
@@ -7734,21 +7728,21 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -7759,7 +7753,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -7770,7 +7764,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -7781,7 +7775,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -7792,7 +7786,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -7803,7 +7797,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -7814,7 +7808,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -7825,7 +7819,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -7836,7 +7830,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -7847,7 +7841,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -7858,7 +7852,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -7869,7 +7863,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -7880,7 +7874,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>181</v>
       </c>
@@ -7891,7 +7885,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>181</v>
       </c>
@@ -7902,7 +7896,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>181</v>
       </c>
@@ -7913,7 +7907,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -7924,7 +7918,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>181</v>
       </c>
@@ -7935,7 +7929,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>181</v>
       </c>
@@ -7946,7 +7940,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>181</v>
       </c>
@@ -7957,7 +7951,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -7968,7 +7962,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>181</v>
       </c>
@@ -7979,7 +7973,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>181</v>
       </c>
@@ -7990,7 +7984,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>181</v>
       </c>
@@ -8001,7 +7995,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>188</v>
       </c>
@@ -8012,7 +8006,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -8023,7 +8017,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>188</v>
       </c>
@@ -8034,7 +8028,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -8045,7 +8039,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>188</v>
       </c>
@@ -8056,7 +8050,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>188</v>
       </c>
@@ -8067,7 +8061,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>188</v>
       </c>
@@ -8078,7 +8072,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>188</v>
       </c>
@@ -8089,7 +8083,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>188</v>
       </c>
@@ -8100,7 +8094,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>188</v>
       </c>
@@ -8111,7 +8105,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -8122,7 +8116,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>189</v>
       </c>
@@ -8133,7 +8127,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>189</v>
       </c>
@@ -8144,7 +8138,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>189</v>
       </c>
@@ -8155,7 +8149,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -8166,7 +8160,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>189</v>
       </c>
@@ -8177,7 +8171,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>189</v>
       </c>
@@ -8188,7 +8182,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>189</v>
       </c>
@@ -8199,7 +8193,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>189</v>
       </c>
@@ -8210,7 +8204,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -8221,7 +8215,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -8232,7 +8226,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>189</v>
       </c>
@@ -8249,23 +8243,23 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O433"/>
   <sheetViews>
-    <sheetView topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="17"/>
-    <col min="8" max="8" width="34.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="9.109375" style="20"/>
-    <col min="14" max="15" width="9.109375" style="13"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="17"/>
+    <col min="8" max="8" width="34.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="9.140625" style="20"/>
+    <col min="14" max="15" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -8292,7 +8286,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -8318,7 +8312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -8344,7 +8338,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -8370,7 +8364,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -8397,7 +8391,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -8427,7 +8421,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -8456,7 +8450,7 @@
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -8486,7 +8480,7 @@
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -8516,7 +8510,7 @@
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -8542,7 +8536,7 @@
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -8570,7 +8564,7 @@
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -8592,7 +8586,7 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -8614,7 +8608,7 @@
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -8636,7 +8630,7 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -8657,7 +8651,7 @@
       </c>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -8678,7 +8672,7 @@
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -8699,7 +8693,7 @@
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -8720,7 +8714,7 @@
       </c>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -8741,7 +8735,7 @@
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -8768,7 +8762,7 @@
       <c r="L20"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -8795,7 +8789,7 @@
       <c r="L21"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -8822,7 +8816,7 @@
       <c r="L22"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -8849,7 +8843,7 @@
       <c r="L23"/>
       <c r="M23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -8876,7 +8870,7 @@
       <c r="L24"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -8903,7 +8897,7 @@
       <c r="L25"/>
       <c r="M25"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -8930,7 +8924,7 @@
       <c r="L26"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -8957,7 +8951,7 @@
       <c r="L27"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -8984,7 +8978,7 @@
       <c r="L28"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -9011,7 +9005,7 @@
       <c r="L29"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -9038,7 +9032,7 @@
       <c r="L30"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -9065,7 +9059,7 @@
       <c r="L31"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -9092,7 +9086,7 @@
       <c r="L32"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -9119,7 +9113,7 @@
       <c r="L33"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -9146,7 +9140,7 @@
       <c r="L34"/>
       <c r="M34"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -9173,7 +9167,7 @@
       <c r="L35"/>
       <c r="M35"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -9200,7 +9194,7 @@
       <c r="L36"/>
       <c r="M36"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -9227,7 +9221,7 @@
       <c r="L37"/>
       <c r="M37"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -9247,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -9267,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -9287,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -9307,7 +9301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -9327,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -9347,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -9367,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -9387,7 +9381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -9407,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -9427,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -9447,7 +9441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -9467,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -9487,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -9507,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -9527,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>91</v>
       </c>
@@ -9547,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -9567,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>91</v>
       </c>
@@ -9587,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -9607,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -9627,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -9647,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -9667,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -9687,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -9707,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>91</v>
       </c>
@@ -9727,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -9747,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>91</v>
       </c>
@@ -9767,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>91</v>
       </c>
@@ -9787,7 +9781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -9807,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -9827,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>91</v>
       </c>
@@ -9847,7 +9841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>91</v>
       </c>
@@ -9867,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -9887,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>91</v>
       </c>
@@ -9907,7 +9901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -9927,7 +9921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -9947,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -9967,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>91</v>
       </c>
@@ -9987,7 +9981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -10007,7 +10001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -10027,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -10047,7 +10041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -10067,7 +10061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -10087,7 +10081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -10107,7 +10101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -10127,7 +10121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -10147,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>91</v>
       </c>
@@ -10167,7 +10161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -10187,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -10207,7 +10201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -10227,7 +10221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -10247,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -10267,7 +10261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -10287,7 +10281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -10307,7 +10301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -10327,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -10347,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -10367,7 +10361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -10387,7 +10381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>91</v>
       </c>
@@ -10407,7 +10401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -10427,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -10447,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>91</v>
       </c>
@@ -10467,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>91</v>
       </c>
@@ -10487,7 +10481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -10507,7 +10501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>91</v>
       </c>
@@ -10527,7 +10521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>91</v>
       </c>
@@ -10547,7 +10541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>91</v>
       </c>
@@ -10567,7 +10561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>91</v>
       </c>
@@ -10587,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>91</v>
       </c>
@@ -10607,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>91</v>
       </c>
@@ -10627,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>91</v>
       </c>
@@ -10647,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>91</v>
       </c>
@@ -10667,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>181</v>
       </c>
@@ -10684,10 +10678,10 @@
         <v>6</v>
       </c>
       <c r="F110" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>181</v>
       </c>
@@ -10704,10 +10698,10 @@
         <v>6</v>
       </c>
       <c r="F111" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>181</v>
       </c>
@@ -10724,10 +10718,10 @@
         <v>6</v>
       </c>
       <c r="F112" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>181</v>
       </c>
@@ -10744,10 +10738,10 @@
         <v>6</v>
       </c>
       <c r="F113" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>181</v>
       </c>
@@ -10764,10 +10758,10 @@
         <v>6</v>
       </c>
       <c r="F114" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>181</v>
       </c>
@@ -10784,10 +10778,10 @@
         <v>6</v>
       </c>
       <c r="F115" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>181</v>
       </c>
@@ -10804,11 +10798,14 @@
         <v>6</v>
       </c>
       <c r="F116" s="20">
-        <v>2.4</v>
+        <v>0</v>
+      </c>
+      <c r="G116" s="20">
+        <v>1.4</v>
       </c>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>181</v>
       </c>
@@ -10825,11 +10822,14 @@
         <v>6</v>
       </c>
       <c r="F117" s="20">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="G117" s="20">
+        <v>0.35</v>
       </c>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>181</v>
       </c>
@@ -10846,11 +10846,14 @@
         <v>6</v>
       </c>
       <c r="F118" s="20">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="G118" s="20">
+        <v>0.35</v>
       </c>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>181</v>
       </c>
@@ -10867,11 +10870,14 @@
         <v>6</v>
       </c>
       <c r="F119" s="20">
-        <v>0.12</v>
+        <v>0</v>
+      </c>
+      <c r="G119" s="20">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>181</v>
       </c>
@@ -10888,11 +10894,14 @@
         <v>6</v>
       </c>
       <c r="F120" s="20">
-        <v>0.96</v>
+        <v>0</v>
+      </c>
+      <c r="G120" s="20">
+        <v>0.8</v>
       </c>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>181</v>
       </c>
@@ -10909,11 +10918,11 @@
         <v>6</v>
       </c>
       <c r="F121" s="20">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>181</v>
       </c>
@@ -10933,7 +10942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>181</v>
       </c>
@@ -10953,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>181</v>
       </c>
@@ -10973,7 +10982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>181</v>
       </c>
@@ -10993,7 +11002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>181</v>
       </c>
@@ -11013,7 +11022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>181</v>
       </c>
@@ -11033,7 +11042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>181</v>
       </c>
@@ -11053,7 +11062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>181</v>
       </c>
@@ -11073,7 +11082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>181</v>
       </c>
@@ -11093,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>181</v>
       </c>
@@ -11113,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>181</v>
       </c>
@@ -11133,7 +11142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>181</v>
       </c>
@@ -11153,7 +11162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>181</v>
       </c>
@@ -11173,7 +11182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>181</v>
       </c>
@@ -11193,7 +11202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>181</v>
       </c>
@@ -11213,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>181</v>
       </c>
@@ -11233,7 +11242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>181</v>
       </c>
@@ -11253,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>181</v>
       </c>
@@ -11273,7 +11282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>181</v>
       </c>
@@ -11293,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>181</v>
       </c>
@@ -11313,7 +11322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>181</v>
       </c>
@@ -11333,7 +11342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>181</v>
       </c>
@@ -11353,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>181</v>
       </c>
@@ -11373,7 +11382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>181</v>
       </c>
@@ -11393,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>181</v>
       </c>
@@ -11413,7 +11422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>181</v>
       </c>
@@ -11433,7 +11442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>181</v>
       </c>
@@ -11453,7 +11462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>181</v>
       </c>
@@ -11473,7 +11482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>181</v>
       </c>
@@ -11493,7 +11502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>181</v>
       </c>
@@ -11513,7 +11522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>181</v>
       </c>
@@ -11533,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>181</v>
       </c>
@@ -11553,7 +11562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>181</v>
       </c>
@@ -11573,7 +11582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>181</v>
       </c>
@@ -11593,7 +11602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>181</v>
       </c>
@@ -11613,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>181</v>
       </c>
@@ -11633,7 +11642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>181</v>
       </c>
@@ -11653,7 +11662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>181</v>
       </c>
@@ -11673,7 +11682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>181</v>
       </c>
@@ -11693,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -11713,7 +11722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>181</v>
       </c>
@@ -11733,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>181</v>
       </c>
@@ -11753,7 +11762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>181</v>
       </c>
@@ -11773,7 +11782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -11793,7 +11802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>181</v>
       </c>
@@ -11813,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -11833,7 +11842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>181</v>
       </c>
@@ -11853,7 +11862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -11873,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>181</v>
       </c>
@@ -11893,7 +11902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>181</v>
       </c>
@@ -11913,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>181</v>
       </c>
@@ -11933,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -11953,7 +11962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>181</v>
       </c>
@@ -11973,7 +11982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -11993,7 +12002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -12013,7 +12022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>181</v>
       </c>
@@ -12033,7 +12042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>181</v>
       </c>
@@ -12053,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -12073,7 +12082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -12093,7 +12102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -12113,7 +12122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -12133,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -12153,7 +12162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -12173,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>181</v>
       </c>
@@ -12193,7 +12202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>181</v>
       </c>
@@ -12213,7 +12222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>181</v>
       </c>
@@ -12233,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>181</v>
       </c>
@@ -12253,7 +12262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>181</v>
       </c>
@@ -12273,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>181</v>
       </c>
@@ -12293,7 +12302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>181</v>
       </c>
@@ -12313,7 +12322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>181</v>
       </c>
@@ -12333,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>181</v>
       </c>
@@ -12353,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>181</v>
       </c>
@@ -12373,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>181</v>
       </c>
@@ -12393,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>181</v>
       </c>
@@ -12413,7 +12422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>181</v>
       </c>
@@ -12433,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>181</v>
       </c>
@@ -12453,7 +12462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>181</v>
       </c>
@@ -12473,7 +12482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>181</v>
       </c>
@@ -12493,7 +12502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>181</v>
       </c>
@@ -12513,7 +12522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>181</v>
       </c>
@@ -12533,7 +12542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>181</v>
       </c>
@@ -12553,7 +12562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>181</v>
       </c>
@@ -12573,7 +12582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>181</v>
       </c>
@@ -12593,7 +12602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>181</v>
       </c>
@@ -12613,7 +12622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>181</v>
       </c>
@@ -12633,7 +12642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>181</v>
       </c>
@@ -12653,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>181</v>
       </c>
@@ -12673,7 +12682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>181</v>
       </c>
@@ -12693,7 +12702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>181</v>
       </c>
@@ -12713,7 +12722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>181</v>
       </c>
@@ -12733,7 +12742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>181</v>
       </c>
@@ -12753,7 +12762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>181</v>
       </c>
@@ -12773,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>181</v>
       </c>
@@ -12793,7 +12802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>181</v>
       </c>
@@ -12813,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>181</v>
       </c>
@@ -12833,7 +12842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>188</v>
       </c>
@@ -12853,7 +12862,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>188</v>
       </c>
@@ -12873,7 +12882,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>188</v>
       </c>
@@ -12893,7 +12902,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>188</v>
       </c>
@@ -12913,7 +12922,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>188</v>
       </c>
@@ -12933,7 +12942,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>188</v>
       </c>
@@ -12950,10 +12959,10 @@
         <v>6</v>
       </c>
       <c r="F223" s="20">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>188</v>
       </c>
@@ -12973,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>188</v>
       </c>
@@ -12993,7 +13002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>188</v>
       </c>
@@ -13013,7 +13022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>188</v>
       </c>
@@ -13033,7 +13042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>188</v>
       </c>
@@ -13053,7 +13062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>188</v>
       </c>
@@ -13073,7 +13082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>188</v>
       </c>
@@ -13093,7 +13102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>188</v>
       </c>
@@ -13113,7 +13122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>188</v>
       </c>
@@ -13133,7 +13142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>188</v>
       </c>
@@ -13153,7 +13162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>188</v>
       </c>
@@ -13173,7 +13182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>188</v>
       </c>
@@ -13193,7 +13202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>188</v>
       </c>
@@ -13213,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>188</v>
       </c>
@@ -13233,7 +13242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>188</v>
       </c>
@@ -13253,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>188</v>
       </c>
@@ -13273,7 +13282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>188</v>
       </c>
@@ -13293,7 +13302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>188</v>
       </c>
@@ -13313,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>188</v>
       </c>
@@ -13333,7 +13342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>188</v>
       </c>
@@ -13353,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>188</v>
       </c>
@@ -13373,7 +13382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>188</v>
       </c>
@@ -13393,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>188</v>
       </c>
@@ -13413,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>188</v>
       </c>
@@ -13433,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>188</v>
       </c>
@@ -13453,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>188</v>
       </c>
@@ -13473,7 +13482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>188</v>
       </c>
@@ -13493,7 +13502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>188</v>
       </c>
@@ -13513,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>188</v>
       </c>
@@ -13533,7 +13542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>188</v>
       </c>
@@ -13553,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>188</v>
       </c>
@@ -13573,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>188</v>
       </c>
@@ -13593,7 +13602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>188</v>
       </c>
@@ -13613,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>188</v>
       </c>
@@ -13633,7 +13642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>188</v>
       </c>
@@ -13653,7 +13662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>188</v>
       </c>
@@ -13673,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>188</v>
       </c>
@@ -13693,7 +13702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>188</v>
       </c>
@@ -13713,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>188</v>
       </c>
@@ -13733,7 +13742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>188</v>
       </c>
@@ -13753,7 +13762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>188</v>
       </c>
@@ -13773,7 +13782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>188</v>
       </c>
@@ -13793,7 +13802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>188</v>
       </c>
@@ -13813,7 +13822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>188</v>
       </c>
@@ -13833,7 +13842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>188</v>
       </c>
@@ -13853,7 +13862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>188</v>
       </c>
@@ -13873,7 +13882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>188</v>
       </c>
@@ -13893,7 +13902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>188</v>
       </c>
@@ -13913,7 +13922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>188</v>
       </c>
@@ -13933,7 +13942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>188</v>
       </c>
@@ -13953,7 +13962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>188</v>
       </c>
@@ -13973,7 +13982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>188</v>
       </c>
@@ -13993,7 +14002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>188</v>
       </c>
@@ -14013,7 +14022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>188</v>
       </c>
@@ -14033,7 +14042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>188</v>
       </c>
@@ -14053,7 +14062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>188</v>
       </c>
@@ -14073,7 +14082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>188</v>
       </c>
@@ -14093,7 +14102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>188</v>
       </c>
@@ -14113,7 +14122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>188</v>
       </c>
@@ -14133,7 +14142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>188</v>
       </c>
@@ -14153,7 +14162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>188</v>
       </c>
@@ -14173,7 +14182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>188</v>
       </c>
@@ -14193,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>188</v>
       </c>
@@ -14213,7 +14222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>188</v>
       </c>
@@ -14233,7 +14242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>188</v>
       </c>
@@ -14253,7 +14262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>188</v>
       </c>
@@ -14273,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>188</v>
       </c>
@@ -14293,7 +14302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>188</v>
       </c>
@@ -14313,7 +14322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>188</v>
       </c>
@@ -14333,7 +14342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>188</v>
       </c>
@@ -14353,7 +14362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>188</v>
       </c>
@@ -14373,7 +14382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>188</v>
       </c>
@@ -14393,7 +14402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>188</v>
       </c>
@@ -14413,7 +14422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>188</v>
       </c>
@@ -14433,7 +14442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>188</v>
       </c>
@@ -14453,7 +14462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>188</v>
       </c>
@@ -14473,7 +14482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>188</v>
       </c>
@@ -14493,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>188</v>
       </c>
@@ -14513,7 +14522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>188</v>
       </c>
@@ -14533,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>188</v>
       </c>
@@ -14553,7 +14562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>188</v>
       </c>
@@ -14573,7 +14582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>188</v>
       </c>
@@ -14593,7 +14602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>188</v>
       </c>
@@ -14613,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>188</v>
       </c>
@@ -14633,7 +14642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>188</v>
       </c>
@@ -14653,7 +14662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>188</v>
       </c>
@@ -14673,7 +14682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>188</v>
       </c>
@@ -14693,7 +14702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>188</v>
       </c>
@@ -14713,7 +14722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>188</v>
       </c>
@@ -14733,7 +14742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>188</v>
       </c>
@@ -14753,7 +14762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>188</v>
       </c>
@@ -14773,7 +14782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>188</v>
       </c>
@@ -14793,7 +14802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>188</v>
       </c>
@@ -14813,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>188</v>
       </c>
@@ -14833,7 +14842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>188</v>
       </c>
@@ -14853,7 +14862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>188</v>
       </c>
@@ -14873,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>188</v>
       </c>
@@ -14893,7 +14902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>188</v>
       </c>
@@ -14913,7 +14922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>188</v>
       </c>
@@ -14933,7 +14942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>188</v>
       </c>
@@ -14953,7 +14962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>188</v>
       </c>
@@ -14973,7 +14982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>188</v>
       </c>
@@ -14993,7 +15002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>189</v>
       </c>
@@ -15013,7 +15022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>189</v>
       </c>
@@ -15033,7 +15042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>189</v>
       </c>
@@ -15053,7 +15062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>189</v>
       </c>
@@ -15073,7 +15082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>189</v>
       </c>
@@ -15093,7 +15102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>189</v>
       </c>
@@ -15113,7 +15122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>189</v>
       </c>
@@ -15134,7 +15143,7 @@
       </c>
       <c r="H332" s="20"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>189</v>
       </c>
@@ -15155,7 +15164,7 @@
       </c>
       <c r="H333" s="20"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>189</v>
       </c>
@@ -15176,7 +15185,7 @@
       </c>
       <c r="H334" s="20"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>189</v>
       </c>
@@ -15197,7 +15206,7 @@
       </c>
       <c r="H335" s="20"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>189</v>
       </c>
@@ -15218,7 +15227,7 @@
       </c>
       <c r="H336" s="20"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>189</v>
       </c>
@@ -15239,7 +15248,7 @@
       </c>
       <c r="H337" s="20"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>189</v>
       </c>
@@ -15259,7 +15268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>189</v>
       </c>
@@ -15279,7 +15288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>189</v>
       </c>
@@ -15299,7 +15308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>189</v>
       </c>
@@ -15319,7 +15328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>189</v>
       </c>
@@ -15339,7 +15348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>189</v>
       </c>
@@ -15359,7 +15368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>189</v>
       </c>
@@ -15379,7 +15388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>189</v>
       </c>
@@ -15399,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>189</v>
       </c>
@@ -15419,7 +15428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>189</v>
       </c>
@@ -15439,7 +15448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>189</v>
       </c>
@@ -15459,7 +15468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>189</v>
       </c>
@@ -15479,7 +15488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>189</v>
       </c>
@@ -15499,7 +15508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>189</v>
       </c>
@@ -15519,7 +15528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>189</v>
       </c>
@@ -15539,7 +15548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>189</v>
       </c>
@@ -15559,7 +15568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>189</v>
       </c>
@@ -15579,7 +15588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>189</v>
       </c>
@@ -15599,7 +15608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>189</v>
       </c>
@@ -15619,7 +15628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>189</v>
       </c>
@@ -15639,7 +15648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>189</v>
       </c>
@@ -15659,7 +15668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>189</v>
       </c>
@@ -15679,7 +15688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>189</v>
       </c>
@@ -15699,7 +15708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>189</v>
       </c>
@@ -15719,7 +15728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>189</v>
       </c>
@@ -15739,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>189</v>
       </c>
@@ -15759,7 +15768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>189</v>
       </c>
@@ -15779,7 +15788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>189</v>
       </c>
@@ -15799,7 +15808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>189</v>
       </c>
@@ -15819,7 +15828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>189</v>
       </c>
@@ -15839,7 +15848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>189</v>
       </c>
@@ -15859,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>189</v>
       </c>
@@ -15879,7 +15888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>189</v>
       </c>
@@ -15899,7 +15908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>189</v>
       </c>
@@ -15919,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>189</v>
       </c>
@@ -15939,7 +15948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>189</v>
       </c>
@@ -15959,7 +15968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>189</v>
       </c>
@@ -15979,7 +15988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>189</v>
       </c>
@@ -15999,7 +16008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>189</v>
       </c>
@@ -16019,7 +16028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>189</v>
       </c>
@@ -16039,7 +16048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>189</v>
       </c>
@@ -16059,7 +16068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>189</v>
       </c>
@@ -16079,7 +16088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>189</v>
       </c>
@@ -16099,7 +16108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>189</v>
       </c>
@@ -16119,7 +16128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>189</v>
       </c>
@@ -16139,7 +16148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>189</v>
       </c>
@@ -16159,7 +16168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>189</v>
       </c>
@@ -16179,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>189</v>
       </c>
@@ -16199,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>189</v>
       </c>
@@ -16219,7 +16228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>189</v>
       </c>
@@ -16239,7 +16248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>189</v>
       </c>
@@ -16259,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>189</v>
       </c>
@@ -16279,7 +16288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>189</v>
       </c>
@@ -16299,7 +16308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>189</v>
       </c>
@@ -16319,7 +16328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>189</v>
       </c>
@@ -16339,7 +16348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>189</v>
       </c>
@@ -16359,7 +16368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>189</v>
       </c>
@@ -16379,7 +16388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>189</v>
       </c>
@@ -16399,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>189</v>
       </c>
@@ -16419,7 +16428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>189</v>
       </c>
@@ -16439,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>189</v>
       </c>
@@ -16459,7 +16468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>189</v>
       </c>
@@ -16479,7 +16488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>189</v>
       </c>
@@ -16499,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>189</v>
       </c>
@@ -16519,7 +16528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>189</v>
       </c>
@@ -16539,7 +16548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>189</v>
       </c>
@@ -16559,7 +16568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>189</v>
       </c>
@@ -16579,7 +16588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>189</v>
       </c>
@@ -16599,7 +16608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>189</v>
       </c>
@@ -16619,7 +16628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>189</v>
       </c>
@@ -16639,7 +16648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>189</v>
       </c>
@@ -16659,7 +16668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>189</v>
       </c>
@@ -16679,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>189</v>
       </c>
@@ -16699,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>189</v>
       </c>
@@ -16719,7 +16728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>189</v>
       </c>
@@ -16739,7 +16748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>189</v>
       </c>
@@ -16759,7 +16768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>189</v>
       </c>
@@ -16779,7 +16788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>189</v>
       </c>
@@ -16799,7 +16808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>189</v>
       </c>
@@ -16819,7 +16828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>189</v>
       </c>
@@ -16839,7 +16848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>189</v>
       </c>
@@ -16859,7 +16868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>189</v>
       </c>
@@ -16879,7 +16888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>189</v>
       </c>
@@ -16899,7 +16908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>189</v>
       </c>
@@ -16919,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>189</v>
       </c>
@@ -16939,7 +16948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>189</v>
       </c>
@@ -16959,7 +16968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>189</v>
       </c>
@@ -16979,7 +16988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>189</v>
       </c>
@@ -16999,7 +17008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>189</v>
       </c>
@@ -17019,7 +17028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>189</v>
       </c>
@@ -17039,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>189</v>
       </c>
@@ -17059,7 +17068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>189</v>
       </c>
@@ -17079,7 +17088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>189</v>
       </c>
@@ -17099,7 +17108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>189</v>
       </c>
@@ -17119,7 +17128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>189</v>
       </c>
@@ -17139,7 +17148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>189</v>
       </c>
@@ -17166,19 +17175,19 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView topLeftCell="A116" workbookViewId="0">
       <selection activeCell="A110" sqref="A110:A145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -17192,7 +17201,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -17213,7 +17222,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -17234,7 +17243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -17252,7 +17261,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -17273,7 +17282,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -17294,7 +17303,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -17312,7 +17321,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -17329,7 +17338,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -17346,7 +17355,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -17412,7 +17421,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -17438,7 +17447,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -17464,7 +17473,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -17481,7 +17490,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -17498,7 +17507,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -17515,7 +17524,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -17532,7 +17541,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -17549,7 +17558,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -17566,7 +17575,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -17583,7 +17592,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -17600,7 +17609,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -17617,7 +17626,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -17634,7 +17643,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -17651,7 +17660,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -17668,7 +17677,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -17685,7 +17694,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -17702,7 +17711,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -17719,7 +17728,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -17736,7 +17745,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -17753,7 +17762,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -17770,7 +17779,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -17787,7 +17796,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -17804,7 +17813,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -17821,7 +17830,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -17838,7 +17847,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -17855,7 +17864,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -17872,7 +17881,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>181</v>
       </c>
@@ -17890,7 +17899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>181</v>
       </c>
@@ -17908,7 +17917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>181</v>
       </c>
@@ -17926,7 +17935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>181</v>
       </c>
@@ -17944,7 +17953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>181</v>
       </c>
@@ -17962,7 +17971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>181</v>
       </c>
@@ -17980,7 +17989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>181</v>
       </c>
@@ -17997,7 +18006,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>181</v>
       </c>
@@ -18014,7 +18023,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>181</v>
       </c>
@@ -18031,7 +18040,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>181</v>
       </c>
@@ -18048,7 +18057,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -18065,7 +18074,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>181</v>
       </c>
@@ -18082,7 +18091,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>181</v>
       </c>
@@ -18099,7 +18108,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -18116,7 +18125,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -18133,7 +18142,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>181</v>
       </c>
@@ -18150,7 +18159,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -18167,7 +18176,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -18184,7 +18193,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -18201,7 +18210,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -18218,7 +18227,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>181</v>
       </c>
@@ -18235,7 +18244,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -18252,7 +18261,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -18269,7 +18278,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -18286,7 +18295,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>181</v>
       </c>
@@ -18303,7 +18312,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>181</v>
       </c>
@@ -18320,7 +18329,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>181</v>
       </c>
@@ -18337,7 +18346,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>181</v>
       </c>
@@ -18354,7 +18363,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>181</v>
       </c>
@@ -18371,7 +18380,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>181</v>
       </c>
@@ -18388,7 +18397,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>181</v>
       </c>
@@ -18405,7 +18414,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>181</v>
       </c>
@@ -18422,7 +18431,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>181</v>
       </c>
@@ -18439,7 +18448,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>181</v>
       </c>
@@ -18456,7 +18465,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>181</v>
       </c>
@@ -18473,7 +18482,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>181</v>
       </c>
@@ -18490,7 +18499,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>188</v>
       </c>
@@ -18508,7 +18517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>188</v>
       </c>
@@ -18526,7 +18535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>188</v>
       </c>
@@ -18544,7 +18553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>188</v>
       </c>
@@ -18562,7 +18571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>188</v>
       </c>
@@ -18580,7 +18589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>188</v>
       </c>
@@ -18598,7 +18607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>188</v>
       </c>
@@ -18615,7 +18624,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>188</v>
       </c>
@@ -18632,7 +18641,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>188</v>
       </c>
@@ -18649,7 +18658,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>188</v>
       </c>
@@ -18666,7 +18675,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>188</v>
       </c>
@@ -18683,7 +18692,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>188</v>
       </c>
@@ -18700,7 +18709,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>188</v>
       </c>
@@ -18717,7 +18726,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -18734,7 +18743,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>188</v>
       </c>
@@ -18751,7 +18760,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -18768,7 +18777,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>188</v>
       </c>
@@ -18785,7 +18794,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>188</v>
       </c>
@@ -18802,7 +18811,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>188</v>
       </c>
@@ -18819,7 +18828,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>188</v>
       </c>
@@ -18836,7 +18845,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>188</v>
       </c>
@@ -18853,7 +18862,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -18870,7 +18879,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>188</v>
       </c>
@@ -18887,7 +18896,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>188</v>
       </c>
@@ -18904,7 +18913,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>188</v>
       </c>
@@ -18921,7 +18930,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>188</v>
       </c>
@@ -18938,7 +18947,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>188</v>
       </c>
@@ -18955,7 +18964,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>188</v>
       </c>
@@ -18972,7 +18981,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>188</v>
       </c>
@@ -18989,7 +18998,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>188</v>
       </c>
@@ -19006,7 +19015,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>188</v>
       </c>
@@ -19023,7 +19032,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>188</v>
       </c>
@@ -19040,7 +19049,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>188</v>
       </c>
@@ -19057,7 +19066,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>188</v>
       </c>
@@ -19074,7 +19083,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>188</v>
       </c>
@@ -19091,7 +19100,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>188</v>
       </c>
@@ -19108,7 +19117,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>189</v>
       </c>
@@ -19126,7 +19135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>189</v>
       </c>
@@ -19144,7 +19153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>189</v>
       </c>
@@ -19162,7 +19171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>189</v>
       </c>
@@ -19180,7 +19189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>189</v>
       </c>
@@ -19198,7 +19207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>189</v>
       </c>
@@ -19216,7 +19225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>189</v>
       </c>
@@ -19233,7 +19242,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>189</v>
       </c>
@@ -19250,7 +19259,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>189</v>
       </c>
@@ -19267,7 +19276,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>189</v>
       </c>
@@ -19284,7 +19293,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>189</v>
       </c>
@@ -19301,7 +19310,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>189</v>
       </c>
@@ -19318,7 +19327,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>189</v>
       </c>
@@ -19335,7 +19344,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>189</v>
       </c>
@@ -19352,7 +19361,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>189</v>
       </c>
@@ -19369,7 +19378,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>189</v>
       </c>
@@ -19386,7 +19395,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>189</v>
       </c>
@@ -19403,7 +19412,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>189</v>
       </c>
@@ -19420,7 +19429,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>189</v>
       </c>
@@ -19437,7 +19446,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>189</v>
       </c>
@@ -19454,7 +19463,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>189</v>
       </c>
@@ -19471,7 +19480,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>189</v>
       </c>
@@ -19488,7 +19497,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>189</v>
       </c>
@@ -19505,7 +19514,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>189</v>
       </c>
@@ -19522,7 +19531,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>189</v>
       </c>
@@ -19539,7 +19548,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>189</v>
       </c>
@@ -19556,7 +19565,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>189</v>
       </c>
@@ -19573,7 +19582,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>189</v>
       </c>
@@ -19590,7 +19599,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>189</v>
       </c>
@@ -19607,7 +19616,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>189</v>
       </c>
@@ -19624,7 +19633,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>189</v>
       </c>
@@ -19641,7 +19650,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>189</v>
       </c>
@@ -19658,7 +19667,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>189</v>
       </c>
@@ -19675,7 +19684,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>189</v>
       </c>
@@ -19692,7 +19701,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>189</v>
       </c>
@@ -19709,7 +19718,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>189</v>
       </c>
@@ -19733,16 +19742,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -19977,14 +19986,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -20259,14 +20268,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -20293,7 +20302,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -20313,7 +20322,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -20333,7 +20342,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -20348,14 +20357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:M10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -20770,14 +20779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -20933,14 +20942,14 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -20996,14 +21005,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="32">
+        <v>400000</v>
+      </c>
+      <c r="C2" s="32">
+        <v>800000</v>
+      </c>
+      <c r="D2" s="32">
+        <v>400000</v>
+      </c>
+      <c r="E2" s="32">
+        <v>400000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -21021,19 +21080,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="32">
-        <v>400000</v>
+        <v>2500000</v>
       </c>
       <c r="C2" s="32">
-        <v>800000</v>
+        <v>1500000</v>
       </c>
       <c r="D2" s="32">
-        <v>400000</v>
+        <v>2500000</v>
       </c>
       <c r="E2" s="32">
-        <v>400000</v>
+        <v>2500000</v>
       </c>
     </row>
   </sheetData>
@@ -21041,18 +21100,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -21071,105 +21175,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="32">
-        <v>2500000</v>
-      </c>
-      <c r="C2" s="32">
-        <v>1500000</v>
-      </c>
-      <c r="D2" s="32">
-        <v>2500000</v>
-      </c>
-      <c r="E2" s="32">
-        <v>2500000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -21184,14 +21196,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -21215,7 +21227,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -21230,14 +21242,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -21327,16 +21339,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW31"/>
   <sheetViews>
     <sheetView topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>143</v>
       </c>
@@ -21485,7 +21497,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -21631,7 +21643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -21782,7 +21794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -21933,7 +21945,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -22083,7 +22095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -22233,7 +22245,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -22383,7 +22395,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -22535,7 +22547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>190</v>
       </c>
@@ -22684,7 +22696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -22833,7 +22845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -22982,12 +22994,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>149</v>
       </c>
@@ -22995,7 +23007,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>144</v>
       </c>
@@ -23006,7 +23018,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>145</v>
       </c>
@@ -23014,7 +23026,7 @@
         <v>5104</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>147</v>
       </c>
@@ -23022,7 +23034,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>191</v>
       </c>
@@ -23030,7 +23042,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>148</v>
       </c>
@@ -23038,7 +23050,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>192</v>
       </c>
@@ -23046,7 +23058,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>190</v>
       </c>
@@ -23054,12 +23066,12 @@
         <v>7598</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>124</v>
       </c>

--- a/dairyclimatemodel2/data/household_data.xlsx
+++ b/dairyclimatemodel2/data/household_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="898" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="898" firstSheet="4" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="7" r:id="rId1"/>
@@ -1100,7 +1100,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8247,7 +8247,7 @@
   <dimension ref="A1:O433"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="J130" sqref="J130"/>
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>91</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>91</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>91</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>91</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>91</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>91</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>91</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>91</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>91</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>91</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>181</v>
       </c>
@@ -10678,10 +10678,13 @@
         <v>6</v>
       </c>
       <c r="F110" s="20">
+        <v>0</v>
+      </c>
+      <c r="G110" s="20">
         <v>1.4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>181</v>
       </c>
@@ -10698,10 +10701,13 @@
         <v>6</v>
       </c>
       <c r="F111" s="20">
+        <v>0</v>
+      </c>
+      <c r="G111" s="20">
         <v>0.35</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>181</v>
       </c>
@@ -10718,6 +10724,9 @@
         <v>6</v>
       </c>
       <c r="F112" s="20">
+        <v>0</v>
+      </c>
+      <c r="G112" s="20">
         <v>0.35</v>
       </c>
     </row>
@@ -10738,6 +10747,9 @@
         <v>6</v>
       </c>
       <c r="F113" s="20">
+        <v>0</v>
+      </c>
+      <c r="G113" s="20">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -10758,6 +10770,9 @@
         <v>6</v>
       </c>
       <c r="F114" s="20">
+        <v>0</v>
+      </c>
+      <c r="G114" s="20">
         <v>0.8</v>
       </c>
     </row>
@@ -10778,6 +10793,9 @@
         <v>6</v>
       </c>
       <c r="F115" s="20">
+        <v>0</v>
+      </c>
+      <c r="G115" s="20">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -10798,7 +10816,7 @@
         <v>6</v>
       </c>
       <c r="F116" s="20">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G116" s="20">
         <v>1.4</v>
@@ -10822,7 +10840,7 @@
         <v>6</v>
       </c>
       <c r="F117" s="20">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G117" s="20">
         <v>0.35</v>
@@ -10846,7 +10864,7 @@
         <v>6</v>
       </c>
       <c r="F118" s="20">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G118" s="20">
         <v>0.35</v>
@@ -10870,7 +10888,7 @@
         <v>6</v>
       </c>
       <c r="F119" s="20">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G119" s="20">
         <v>7.4999999999999997E-2</v>
@@ -10894,7 +10912,7 @@
         <v>6</v>
       </c>
       <c r="F120" s="20">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G120" s="20">
         <v>0.8</v>

--- a/dairyclimatemodel2/data/household_data.xlsx
+++ b/dairyclimatemodel2/data/household_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkins3\Documents\household_ghg_model\household_ghg_model\dairyclimatemodel2\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="898" firstSheet="4" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="898"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="7" r:id="rId1"/>
@@ -20,17 +25,18 @@
     <sheet name="labour" sheetId="21" r:id="rId11"/>
     <sheet name="rangeland_yield" sheetId="39" r:id="rId12"/>
     <sheet name="cropnutrients" sheetId="8" r:id="rId13"/>
-    <sheet name="prodparams" sheetId="12" r:id="rId14"/>
-    <sheet name="startfeed" sheetId="18" r:id="rId15"/>
-    <sheet name="startlivestock" sheetId="20" r:id="rId16"/>
-    <sheet name="maintexpenses" sheetId="25" r:id="rId17"/>
-    <sheet name="mortality" sheetId="24" r:id="rId18"/>
-    <sheet name="crop_price" sheetId="34" r:id="rId19"/>
-    <sheet name="crop_labour" sheetId="35" r:id="rId20"/>
-    <sheet name="crop_costs" sheetId="36" r:id="rId21"/>
-    <sheet name="labour_rate" sheetId="38" r:id="rId22"/>
+    <sheet name="maintexpenses" sheetId="44" r:id="rId14"/>
+    <sheet name="prodparams" sheetId="12" r:id="rId15"/>
+    <sheet name="startfeed" sheetId="18" r:id="rId16"/>
+    <sheet name="startlivestock" sheetId="20" r:id="rId17"/>
+    <sheet name="maintexpenses_old" sheetId="25" r:id="rId18"/>
+    <sheet name="mortality" sheetId="24" r:id="rId19"/>
+    <sheet name="crop_price" sheetId="34" r:id="rId20"/>
+    <sheet name="crop_labour" sheetId="35" r:id="rId21"/>
+    <sheet name="crop_costs" sheetId="36" r:id="rId22"/>
+    <sheet name="labour_rate" sheetId="38" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="210">
   <si>
     <t>par</t>
   </si>
@@ -597,9 +603,6 @@
     <t>startlivestock!A1</t>
   </si>
   <si>
-    <t>maintExpenses!A1</t>
-  </si>
-  <si>
     <t>mortality!A2</t>
   </si>
   <si>
@@ -668,11 +671,17 @@
   <si>
     <t xml:space="preserve">Notes: </t>
   </si>
+  <si>
+    <t>general expenses per head of livestock</t>
+  </si>
+  <si>
+    <t>maintExpenses_old!A1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -888,7 +897,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -923,7 +932,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1100,7 +1109,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1110,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,10 +1210,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" t="s">
         <v>198</v>
-      </c>
-      <c r="C7" t="s">
-        <v>199</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1284,7 +1293,7 @@
         <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1424,7 +1433,7 @@
         <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1444,7 +1453,7 @@
         <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1628,76 +1637,76 @@
         <v>181</v>
       </c>
       <c r="Z1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL1" t="s">
         <v>188</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AM1" t="s">
         <v>188</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AN1" t="s">
         <v>188</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AO1" t="s">
         <v>188</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AP1" t="s">
         <v>188</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AQ1" t="s">
         <v>188</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AR1" t="s">
         <v>188</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AS1" t="s">
         <v>188</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AT1" t="s">
         <v>188</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AU1" t="s">
         <v>188</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AV1" t="s">
         <v>188</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AW1" t="s">
         <v>188</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.3">
@@ -2742,7 +2751,7 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2914,14 +2923,14 @@
         <v>37.755000000000003</v>
       </c>
       <c r="R4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T4">
         <f>47.31-5.36</f>
         <v>41.95</v>
       </c>
       <c r="V4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -3018,7 +3027,7 @@
         <v>37.755000000000003</v>
       </c>
       <c r="R6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T6">
         <f>T4/T5</f>
@@ -3069,7 +3078,7 @@
         <v>37.755000000000003</v>
       </c>
       <c r="R7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T7" s="9">
         <f>T6*4</f>
@@ -5235,6 +5244,989 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N197"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2">
+        <v>266</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3">
+        <v>266</v>
+      </c>
+      <c r="F3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5">
+        <v>2090</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>2660</v>
+      </c>
+      <c r="F6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <v>2090</v>
+      </c>
+      <c r="G10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11">
+        <v>2090</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11">
+        <f>1900</f>
+        <v>1900</v>
+      </c>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12">
+        <v>2660</v>
+      </c>
+      <c r="L12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N12">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13">
+        <v>2660</v>
+      </c>
+      <c r="L13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13">
+        <v>1.4</v>
+      </c>
+      <c r="N13">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="25"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="25"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="25"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="25"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="25"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="25"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="25"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="25"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="25"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="25"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="25"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="25"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="25"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="25"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="25"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="25"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="25"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="25"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="25"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="25"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="25"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="25"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="25"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="25"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="25"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="25"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="25"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="25"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="25"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="25"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="25"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="25"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="25"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="25"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="25"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="25"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="25"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="25"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="25"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="25"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="25"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="25"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="25"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="25"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="25"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="25"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="25"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="25"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="25"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="25"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="25"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="25"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="25"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="25"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="25"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="25"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="25"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="25"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="25"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="25"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="25"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="25"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="25"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="25"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="25"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="25"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="25"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="25"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="25"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="25"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="25"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="25"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="25"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="25"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="25"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="25"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="25"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="25"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="25"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="25"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="25"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="25"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="25"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="25"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="25"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="25"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="25"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="25"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="25"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="25"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="25"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="25"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="25"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="25"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="25"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="25"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="25"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="25"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="25"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="25"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="25"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="25"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="25"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="25"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="25"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="25"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="25"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="25"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="25"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" s="25"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" s="25"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="25"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V146"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -7727,7 +8719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
@@ -7997,7 +8989,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>96</v>
@@ -8008,7 +9000,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>97</v>
@@ -8019,7 +9011,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>98</v>
@@ -8030,7 +9022,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>99</v>
@@ -8041,7 +9033,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>100</v>
@@ -8052,7 +9044,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>101</v>
@@ -8063,7 +9055,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>113</v>
@@ -8074,7 +9066,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>114</v>
@@ -8085,7 +9077,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>115</v>
@@ -8096,7 +9088,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>73</v>
@@ -8107,7 +9099,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>102</v>
@@ -8118,7 +9110,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>96</v>
@@ -8129,7 +9121,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>97</v>
@@ -8140,7 +9132,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>98</v>
@@ -8151,7 +9143,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>99</v>
@@ -8162,7 +9154,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>100</v>
@@ -8173,7 +9165,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>101</v>
@@ -8184,7 +9176,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>113</v>
@@ -8195,7 +9187,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>114</v>
@@ -8206,7 +9198,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>115</v>
@@ -8217,7 +9209,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>73</v>
@@ -8228,7 +9220,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>102</v>
@@ -8242,12 +9234,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10678,7 +11670,7 @@
         <v>6</v>
       </c>
       <c r="F110" s="20">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G110" s="20">
         <v>1.4</v>
@@ -10701,7 +11693,7 @@
         <v>6</v>
       </c>
       <c r="F111" s="20">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G111" s="20">
         <v>0.35</v>
@@ -10724,7 +11716,7 @@
         <v>6</v>
       </c>
       <c r="F112" s="20">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G112" s="20">
         <v>0.35</v>
@@ -10747,7 +11739,7 @@
         <v>6</v>
       </c>
       <c r="F113" s="20">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G113" s="20">
         <v>7.4999999999999997E-2</v>
@@ -10770,7 +11762,7 @@
         <v>6</v>
       </c>
       <c r="F114" s="20">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G114" s="20">
         <v>0.8</v>
@@ -10793,7 +11785,7 @@
         <v>6</v>
       </c>
       <c r="F115" s="20">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G115" s="20">
         <v>7.0000000000000007E-2</v>
@@ -10816,7 +11808,7 @@
         <v>6</v>
       </c>
       <c r="F116" s="20">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="G116" s="20">
         <v>1.4</v>
@@ -10840,7 +11832,7 @@
         <v>6</v>
       </c>
       <c r="F117" s="20">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G117" s="20">
         <v>0.35</v>
@@ -10864,7 +11856,7 @@
         <v>6</v>
       </c>
       <c r="F118" s="20">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G118" s="20">
         <v>0.35</v>
@@ -10888,7 +11880,7 @@
         <v>6</v>
       </c>
       <c r="F119" s="20">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="G119" s="20">
         <v>7.4999999999999997E-2</v>
@@ -10912,7 +11904,7 @@
         <v>6</v>
       </c>
       <c r="F120" s="20">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G120" s="20">
         <v>0.8</v>
@@ -12862,7 +13854,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B218" t="s">
         <v>75</v>
@@ -12882,7 +13874,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B219" t="s">
         <v>86</v>
@@ -12902,7 +13894,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B220" t="s">
         <v>85</v>
@@ -12922,7 +13914,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B221" t="s">
         <v>83</v>
@@ -12942,7 +13934,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B222" t="s">
         <v>84</v>
@@ -12962,7 +13954,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B223" t="s">
         <v>82</v>
@@ -12982,7 +13974,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B224" t="s">
         <v>76</v>
@@ -13002,7 +13994,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B225" t="s">
         <v>81</v>
@@ -13022,7 +14014,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B226" t="s">
         <v>80</v>
@@ -13042,7 +14034,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B227" t="s">
         <v>78</v>
@@ -13062,7 +14054,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B228" t="s">
         <v>79</v>
@@ -13082,7 +14074,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B229" t="s">
         <v>77</v>
@@ -13102,7 +14094,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B230" t="s">
         <v>75</v>
@@ -13122,7 +14114,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B231" t="s">
         <v>86</v>
@@ -13142,7 +14134,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B232" t="s">
         <v>85</v>
@@ -13162,7 +14154,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B233" t="s">
         <v>83</v>
@@ -13182,7 +14174,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B234" t="s">
         <v>84</v>
@@ -13202,7 +14194,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B235" t="s">
         <v>82</v>
@@ -13222,7 +14214,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B236" t="s">
         <v>76</v>
@@ -13242,7 +14234,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B237" t="s">
         <v>81</v>
@@ -13262,7 +14254,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B238" t="s">
         <v>80</v>
@@ -13282,7 +14274,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B239" t="s">
         <v>78</v>
@@ -13302,7 +14294,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B240" t="s">
         <v>79</v>
@@ -13322,7 +14314,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B241" t="s">
         <v>77</v>
@@ -13342,7 +14334,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B242" t="s">
         <v>75</v>
@@ -13362,7 +14354,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B243" t="s">
         <v>86</v>
@@ -13382,7 +14374,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B244" t="s">
         <v>85</v>
@@ -13402,7 +14394,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B245" t="s">
         <v>83</v>
@@ -13422,7 +14414,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B246" t="s">
         <v>84</v>
@@ -13442,7 +14434,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B247" t="s">
         <v>82</v>
@@ -13462,7 +14454,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B248" t="s">
         <v>76</v>
@@ -13482,7 +14474,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B249" t="s">
         <v>81</v>
@@ -13502,7 +14494,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B250" t="s">
         <v>80</v>
@@ -13522,7 +14514,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B251" t="s">
         <v>78</v>
@@ -13542,7 +14534,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B252" t="s">
         <v>79</v>
@@ -13562,7 +14554,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B253" t="s">
         <v>77</v>
@@ -13582,7 +14574,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B254" t="s">
         <v>75</v>
@@ -13602,7 +14594,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B255" t="s">
         <v>86</v>
@@ -13622,7 +14614,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B256" t="s">
         <v>85</v>
@@ -13642,7 +14634,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B257" t="s">
         <v>83</v>
@@ -13662,7 +14654,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B258" t="s">
         <v>84</v>
@@ -13682,7 +14674,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B259" t="s">
         <v>82</v>
@@ -13702,7 +14694,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B260" t="s">
         <v>76</v>
@@ -13722,7 +14714,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B261" t="s">
         <v>81</v>
@@ -13742,7 +14734,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B262" t="s">
         <v>80</v>
@@ -13762,7 +14754,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B263" t="s">
         <v>78</v>
@@ -13782,7 +14774,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B264" t="s">
         <v>79</v>
@@ -13802,7 +14794,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B265" t="s">
         <v>77</v>
@@ -13822,7 +14814,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B266" t="s">
         <v>75</v>
@@ -13842,7 +14834,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B267" t="s">
         <v>86</v>
@@ -13862,7 +14854,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B268" t="s">
         <v>85</v>
@@ -13882,7 +14874,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B269" t="s">
         <v>83</v>
@@ -13902,7 +14894,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B270" t="s">
         <v>84</v>
@@ -13922,7 +14914,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B271" t="s">
         <v>82</v>
@@ -13942,7 +14934,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B272" t="s">
         <v>76</v>
@@ -13962,7 +14954,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B273" t="s">
         <v>81</v>
@@ -13982,7 +14974,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B274" t="s">
         <v>80</v>
@@ -14002,7 +14994,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B275" t="s">
         <v>78</v>
@@ -14022,7 +15014,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B276" t="s">
         <v>79</v>
@@ -14042,7 +15034,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B277" t="s">
         <v>77</v>
@@ -14062,7 +15054,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B278" t="s">
         <v>75</v>
@@ -14082,7 +15074,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B279" t="s">
         <v>86</v>
@@ -14102,7 +15094,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B280" t="s">
         <v>85</v>
@@ -14122,7 +15114,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B281" t="s">
         <v>83</v>
@@ -14142,7 +15134,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B282" t="s">
         <v>84</v>
@@ -14162,7 +15154,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B283" t="s">
         <v>82</v>
@@ -14182,7 +15174,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B284" t="s">
         <v>76</v>
@@ -14202,7 +15194,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B285" t="s">
         <v>81</v>
@@ -14222,7 +15214,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B286" t="s">
         <v>80</v>
@@ -14242,7 +15234,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B287" t="s">
         <v>78</v>
@@ -14262,7 +15254,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B288" t="s">
         <v>79</v>
@@ -14282,7 +15274,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B289" t="s">
         <v>77</v>
@@ -14302,7 +15294,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B290" t="s">
         <v>75</v>
@@ -14322,7 +15314,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B291" t="s">
         <v>86</v>
@@ -14342,7 +15334,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B292" t="s">
         <v>85</v>
@@ -14362,7 +15354,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B293" t="s">
         <v>83</v>
@@ -14382,7 +15374,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B294" t="s">
         <v>84</v>
@@ -14402,7 +15394,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B295" t="s">
         <v>82</v>
@@ -14422,7 +15414,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B296" t="s">
         <v>76</v>
@@ -14442,7 +15434,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B297" t="s">
         <v>81</v>
@@ -14462,7 +15454,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B298" t="s">
         <v>80</v>
@@ -14482,7 +15474,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B299" t="s">
         <v>78</v>
@@ -14502,7 +15494,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B300" t="s">
         <v>79</v>
@@ -14522,7 +15514,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B301" t="s">
         <v>77</v>
@@ -14542,7 +15534,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B302" t="s">
         <v>75</v>
@@ -14562,7 +15554,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B303" t="s">
         <v>86</v>
@@ -14582,7 +15574,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B304" t="s">
         <v>85</v>
@@ -14602,7 +15594,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B305" t="s">
         <v>83</v>
@@ -14622,7 +15614,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B306" t="s">
         <v>84</v>
@@ -14642,7 +15634,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B307" t="s">
         <v>82</v>
@@ -14662,7 +15654,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B308" t="s">
         <v>76</v>
@@ -14682,7 +15674,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B309" t="s">
         <v>81</v>
@@ -14702,7 +15694,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B310" t="s">
         <v>80</v>
@@ -14722,7 +15714,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B311" t="s">
         <v>78</v>
@@ -14742,7 +15734,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B312" t="s">
         <v>79</v>
@@ -14762,7 +15754,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B313" t="s">
         <v>77</v>
@@ -14782,7 +15774,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B314" t="s">
         <v>75</v>
@@ -14802,7 +15794,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B315" t="s">
         <v>86</v>
@@ -14822,7 +15814,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B316" t="s">
         <v>85</v>
@@ -14842,7 +15834,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B317" t="s">
         <v>83</v>
@@ -14862,7 +15854,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B318" t="s">
         <v>84</v>
@@ -14882,7 +15874,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B319" t="s">
         <v>82</v>
@@ -14902,7 +15894,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B320" t="s">
         <v>76</v>
@@ -14922,7 +15914,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B321" t="s">
         <v>81</v>
@@ -14942,7 +15934,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B322" t="s">
         <v>80</v>
@@ -14962,7 +15954,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B323" t="s">
         <v>78</v>
@@ -14982,7 +15974,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B324" t="s">
         <v>79</v>
@@ -15002,7 +15994,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B325" t="s">
         <v>77</v>
@@ -15022,7 +16014,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B326" t="s">
         <v>75</v>
@@ -15042,7 +16034,7 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B327" t="s">
         <v>86</v>
@@ -15062,7 +16054,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B328" t="s">
         <v>85</v>
@@ -15082,7 +16074,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B329" t="s">
         <v>83</v>
@@ -15102,7 +16094,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B330" t="s">
         <v>84</v>
@@ -15122,7 +16114,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B331" t="s">
         <v>82</v>
@@ -15142,7 +16134,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B332" t="s">
         <v>76</v>
@@ -15163,7 +16155,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B333" t="s">
         <v>81</v>
@@ -15184,7 +16176,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B334" t="s">
         <v>80</v>
@@ -15205,7 +16197,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B335" t="s">
         <v>78</v>
@@ -15226,7 +16218,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B336" t="s">
         <v>79</v>
@@ -15247,7 +16239,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B337" t="s">
         <v>77</v>
@@ -15268,7 +16260,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B338" t="s">
         <v>75</v>
@@ -15288,7 +16280,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B339" t="s">
         <v>86</v>
@@ -15308,7 +16300,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B340" t="s">
         <v>85</v>
@@ -15328,7 +16320,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B341" t="s">
         <v>83</v>
@@ -15348,7 +16340,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B342" t="s">
         <v>84</v>
@@ -15368,7 +16360,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B343" t="s">
         <v>82</v>
@@ -15388,7 +16380,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B344" t="s">
         <v>76</v>
@@ -15408,7 +16400,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B345" t="s">
         <v>81</v>
@@ -15428,7 +16420,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B346" t="s">
         <v>80</v>
@@ -15448,7 +16440,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B347" t="s">
         <v>78</v>
@@ -15468,7 +16460,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B348" t="s">
         <v>79</v>
@@ -15488,7 +16480,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B349" t="s">
         <v>77</v>
@@ -15508,7 +16500,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B350" t="s">
         <v>75</v>
@@ -15528,7 +16520,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B351" t="s">
         <v>86</v>
@@ -15548,7 +16540,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B352" t="s">
         <v>85</v>
@@ -15568,7 +16560,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B353" t="s">
         <v>83</v>
@@ -15588,7 +16580,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B354" t="s">
         <v>84</v>
@@ -15608,7 +16600,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B355" t="s">
         <v>82</v>
@@ -15628,7 +16620,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B356" t="s">
         <v>76</v>
@@ -15648,7 +16640,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B357" t="s">
         <v>81</v>
@@ -15668,7 +16660,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B358" t="s">
         <v>80</v>
@@ -15688,7 +16680,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B359" t="s">
         <v>78</v>
@@ -15708,7 +16700,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B360" t="s">
         <v>79</v>
@@ -15728,7 +16720,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B361" t="s">
         <v>77</v>
@@ -15748,7 +16740,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B362" t="s">
         <v>75</v>
@@ -15768,7 +16760,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B363" t="s">
         <v>86</v>
@@ -15788,7 +16780,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B364" t="s">
         <v>85</v>
@@ -15808,7 +16800,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B365" t="s">
         <v>83</v>
@@ -15828,7 +16820,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B366" t="s">
         <v>84</v>
@@ -15848,7 +16840,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B367" t="s">
         <v>82</v>
@@ -15868,7 +16860,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B368" t="s">
         <v>76</v>
@@ -15888,7 +16880,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B369" t="s">
         <v>81</v>
@@ -15908,7 +16900,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B370" t="s">
         <v>80</v>
@@ -15928,7 +16920,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B371" t="s">
         <v>78</v>
@@ -15948,7 +16940,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B372" t="s">
         <v>79</v>
@@ -15968,7 +16960,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B373" t="s">
         <v>77</v>
@@ -15988,7 +16980,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B374" t="s">
         <v>75</v>
@@ -16008,7 +17000,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B375" t="s">
         <v>86</v>
@@ -16028,7 +17020,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B376" t="s">
         <v>85</v>
@@ -16048,7 +17040,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B377" t="s">
         <v>83</v>
@@ -16068,7 +17060,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B378" t="s">
         <v>84</v>
@@ -16088,7 +17080,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B379" t="s">
         <v>82</v>
@@ -16108,7 +17100,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B380" t="s">
         <v>76</v>
@@ -16128,7 +17120,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B381" t="s">
         <v>81</v>
@@ -16148,7 +17140,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B382" t="s">
         <v>80</v>
@@ -16168,7 +17160,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B383" t="s">
         <v>78</v>
@@ -16188,7 +17180,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B384" t="s">
         <v>79</v>
@@ -16208,7 +17200,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B385" t="s">
         <v>77</v>
@@ -16228,7 +17220,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B386" t="s">
         <v>75</v>
@@ -16248,7 +17240,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B387" t="s">
         <v>86</v>
@@ -16268,7 +17260,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B388" t="s">
         <v>85</v>
@@ -16288,7 +17280,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B389" t="s">
         <v>83</v>
@@ -16308,7 +17300,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B390" t="s">
         <v>84</v>
@@ -16328,7 +17320,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B391" t="s">
         <v>82</v>
@@ -16348,7 +17340,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B392" t="s">
         <v>76</v>
@@ -16368,7 +17360,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B393" t="s">
         <v>81</v>
@@ -16388,7 +17380,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B394" t="s">
         <v>80</v>
@@ -16408,7 +17400,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B395" t="s">
         <v>78</v>
@@ -16428,7 +17420,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B396" t="s">
         <v>79</v>
@@ -16448,7 +17440,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B397" t="s">
         <v>77</v>
@@ -16468,7 +17460,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B398" t="s">
         <v>75</v>
@@ -16488,7 +17480,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B399" t="s">
         <v>86</v>
@@ -16508,7 +17500,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B400" t="s">
         <v>85</v>
@@ -16528,7 +17520,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B401" t="s">
         <v>83</v>
@@ -16548,7 +17540,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B402" t="s">
         <v>84</v>
@@ -16568,7 +17560,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B403" t="s">
         <v>82</v>
@@ -16588,7 +17580,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B404" t="s">
         <v>76</v>
@@ -16608,7 +17600,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B405" t="s">
         <v>81</v>
@@ -16628,7 +17620,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B406" t="s">
         <v>80</v>
@@ -16648,7 +17640,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B407" t="s">
         <v>78</v>
@@ -16668,7 +17660,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B408" t="s">
         <v>79</v>
@@ -16688,7 +17680,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B409" t="s">
         <v>77</v>
@@ -16708,7 +17700,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B410" t="s">
         <v>75</v>
@@ -16728,7 +17720,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B411" t="s">
         <v>86</v>
@@ -16748,7 +17740,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B412" t="s">
         <v>85</v>
@@ -16768,7 +17760,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B413" t="s">
         <v>83</v>
@@ -16788,7 +17780,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B414" t="s">
         <v>84</v>
@@ -16808,7 +17800,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B415" t="s">
         <v>82</v>
@@ -16828,7 +17820,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B416" t="s">
         <v>76</v>
@@ -16848,7 +17840,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B417" t="s">
         <v>81</v>
@@ -16868,7 +17860,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B418" t="s">
         <v>80</v>
@@ -16888,7 +17880,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B419" t="s">
         <v>78</v>
@@ -16908,7 +17900,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B420" t="s">
         <v>79</v>
@@ -16928,7 +17920,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B421" t="s">
         <v>77</v>
@@ -16948,7 +17940,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B422" t="s">
         <v>75</v>
@@ -16968,7 +17960,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B423" t="s">
         <v>86</v>
@@ -16988,7 +17980,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B424" t="s">
         <v>85</v>
@@ -17008,7 +18000,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B425" t="s">
         <v>83</v>
@@ -17028,7 +18020,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B426" t="s">
         <v>84</v>
@@ -17048,7 +18040,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B427" t="s">
         <v>82</v>
@@ -17068,7 +18060,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B428" t="s">
         <v>76</v>
@@ -17088,7 +18080,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B429" t="s">
         <v>81</v>
@@ -17108,7 +18100,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B430" t="s">
         <v>80</v>
@@ -17128,7 +18120,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B431" t="s">
         <v>78</v>
@@ -17148,7 +18140,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B432" t="s">
         <v>79</v>
@@ -17168,7 +18160,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B433" t="s">
         <v>77</v>
@@ -17192,12 +18184,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:A145"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18449,7 +19441,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>181</v>
       </c>
@@ -18466,7 +19458,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>181</v>
       </c>
@@ -18483,7 +19475,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>181</v>
       </c>
@@ -18500,7 +19492,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>181</v>
       </c>
@@ -18517,9 +19509,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B74" t="s">
         <v>85</v>
@@ -18535,9 +19527,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B75" t="s">
         <v>86</v>
@@ -18553,9 +19545,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B76" t="s">
         <v>84</v>
@@ -18571,9 +19563,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B77" t="s">
         <v>83</v>
@@ -18589,9 +19581,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B78" t="s">
         <v>75</v>
@@ -18607,9 +19599,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B79" t="s">
         <v>82</v>
@@ -18625,9 +19617,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
@@ -18642,9 +19634,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
@@ -18659,9 +19651,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B82" t="s">
         <v>79</v>
@@ -18676,9 +19668,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B83" t="s">
         <v>78</v>
@@ -18693,9 +19685,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B84" t="s">
         <v>76</v>
@@ -18710,9 +19702,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B85" t="s">
         <v>77</v>
@@ -18727,9 +19719,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B86" t="s">
         <v>85</v>
@@ -18744,9 +19736,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B87" t="s">
         <v>86</v>
@@ -18761,9 +19753,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B88" t="s">
         <v>84</v>
@@ -18778,9 +19770,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B89" t="s">
         <v>83</v>
@@ -18795,9 +19787,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B90" t="s">
         <v>75</v>
@@ -18812,9 +19804,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B91" t="s">
         <v>82</v>
@@ -18829,9 +19821,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B92" t="s">
         <v>80</v>
@@ -18846,9 +19838,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B93" t="s">
         <v>81</v>
@@ -18863,9 +19855,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B94" t="s">
         <v>79</v>
@@ -18880,9 +19872,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B95" t="s">
         <v>78</v>
@@ -18897,9 +19889,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B96" t="s">
         <v>76</v>
@@ -18914,9 +19906,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B97" t="s">
         <v>77</v>
@@ -18931,9 +19923,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B98" t="s">
         <v>85</v>
@@ -18948,9 +19940,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B99" t="s">
         <v>86</v>
@@ -18965,9 +19957,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B100" t="s">
         <v>84</v>
@@ -18982,9 +19974,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B101" t="s">
         <v>83</v>
@@ -18999,9 +19991,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B102" t="s">
         <v>75</v>
@@ -19016,9 +20008,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B103" t="s">
         <v>82</v>
@@ -19033,9 +20025,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B104" t="s">
         <v>80</v>
@@ -19050,9 +20042,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B105" t="s">
         <v>81</v>
@@ -19067,9 +20059,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B106" t="s">
         <v>79</v>
@@ -19084,9 +20076,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B107" t="s">
         <v>78</v>
@@ -19101,9 +20093,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B108" t="s">
         <v>76</v>
@@ -19118,9 +20110,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B109" t="s">
         <v>77</v>
@@ -19135,9 +20127,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B110" t="s">
         <v>85</v>
@@ -19153,9 +20145,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B111" t="s">
         <v>86</v>
@@ -19171,9 +20163,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B112" t="s">
         <v>84</v>
@@ -19189,9 +20181,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B113" t="s">
         <v>83</v>
@@ -19207,9 +20199,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B114" t="s">
         <v>75</v>
@@ -19225,9 +20217,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B115" t="s">
         <v>82</v>
@@ -19243,9 +20235,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B116" t="s">
         <v>80</v>
@@ -19260,9 +20252,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B117" t="s">
         <v>81</v>
@@ -19277,9 +20269,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B118" t="s">
         <v>79</v>
@@ -19294,9 +20286,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B119" t="s">
         <v>78</v>
@@ -19311,9 +20303,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B120" t="s">
         <v>76</v>
@@ -19328,9 +20320,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B121" t="s">
         <v>77</v>
@@ -19345,9 +20337,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B122" t="s">
         <v>85</v>
@@ -19362,9 +20354,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B123" t="s">
         <v>86</v>
@@ -19379,9 +20371,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B124" t="s">
         <v>84</v>
@@ -19396,9 +20388,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B125" t="s">
         <v>83</v>
@@ -19413,9 +20405,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B126" t="s">
         <v>75</v>
@@ -19430,9 +20422,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B127" t="s">
         <v>82</v>
@@ -19447,9 +20439,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B128" t="s">
         <v>80</v>
@@ -19464,9 +20456,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B129" t="s">
         <v>81</v>
@@ -19481,9 +20473,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B130" t="s">
         <v>79</v>
@@ -19498,9 +20490,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B131" t="s">
         <v>78</v>
@@ -19515,9 +20507,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B132" t="s">
         <v>76</v>
@@ -19532,9 +20524,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B133" t="s">
         <v>77</v>
@@ -19549,9 +20541,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B134" t="s">
         <v>85</v>
@@ -19566,9 +20558,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B135" t="s">
         <v>86</v>
@@ -19583,9 +20575,9 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B136" t="s">
         <v>84</v>
@@ -19600,9 +20592,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B137" t="s">
         <v>83</v>
@@ -19617,9 +20609,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B138" t="s">
         <v>75</v>
@@ -19634,9 +20626,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B139" t="s">
         <v>82</v>
@@ -19653,7 +20645,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B140" t="s">
         <v>80</v>
@@ -19670,7 +20662,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B141" t="s">
         <v>81</v>
@@ -19687,7 +20679,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B142" t="s">
         <v>79</v>
@@ -19704,7 +20696,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B143" t="s">
         <v>78</v>
@@ -19721,7 +20713,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B144" t="s">
         <v>76</v>
@@ -19738,7 +20730,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B145" t="s">
         <v>77</v>
@@ -19759,7 +20751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -19996,288 +20988,6 @@
       </c>
       <c r="E14">
         <v>0.02</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2">
-        <f>B15*2254.6</f>
-        <v>509990.51999999996</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:E2" si="0">C15*2254.6</f>
-        <v>509990.51999999996</v>
-      </c>
-      <c r="D2">
-        <f t="shared" si="0"/>
-        <v>509990.51999999996</v>
-      </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
-        <v>509990.51999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:E8" si="1">B16*2254.6</f>
-        <v>1297071.3799999999</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="1"/>
-        <v>1297071.3799999999</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="1"/>
-        <v>1297071.3799999999</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="1"/>
-        <v>1297071.3799999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="1"/>
-        <v>693064.03999999992</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>693064.03999999992</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>693064.03999999992</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>693064.03999999992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="1"/>
-        <v>741988.86</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>741988.86</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>741988.86</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>741988.86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="1"/>
-        <v>900036.32</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>900036.32</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>900036.32</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>900036.32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="1"/>
-        <v>994053.1399999999</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>994053.1399999999</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>994053.1399999999</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>994053.1399999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="1"/>
-        <v>865090.0199999999</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>865090.0199999999</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>865090.0199999999</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>865090.0199999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>226.2</v>
-      </c>
-      <c r="C15">
-        <v>226.2</v>
-      </c>
-      <c r="D15">
-        <v>226.2</v>
-      </c>
-      <c r="E15">
-        <v>226.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>575.29999999999995</v>
-      </c>
-      <c r="C16">
-        <v>575.29999999999995</v>
-      </c>
-      <c r="D16">
-        <v>575.29999999999995</v>
-      </c>
-      <c r="E16">
-        <v>575.29999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>307.39999999999998</v>
-      </c>
-      <c r="C17">
-        <v>307.39999999999998</v>
-      </c>
-      <c r="D17">
-        <v>307.39999999999998</v>
-      </c>
-      <c r="E17">
-        <v>307.39999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>329.1</v>
-      </c>
-      <c r="C18">
-        <v>329.1</v>
-      </c>
-      <c r="D18">
-        <v>329.1</v>
-      </c>
-      <c r="E18">
-        <v>329.1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>399.2</v>
-      </c>
-      <c r="C19">
-        <v>399.2</v>
-      </c>
-      <c r="D19">
-        <v>399.2</v>
-      </c>
-      <c r="E19">
-        <v>399.2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>440.9</v>
-      </c>
-      <c r="C20">
-        <v>440.9</v>
-      </c>
-      <c r="D20">
-        <v>440.9</v>
-      </c>
-      <c r="E20">
-        <v>440.9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>383.7</v>
-      </c>
-      <c r="C21">
-        <v>383.7</v>
-      </c>
-      <c r="D21">
-        <v>383.7</v>
-      </c>
-      <c r="E21">
-        <v>383.7</v>
       </c>
     </row>
   </sheetData>
@@ -20303,13 +21013,13 @@
         <v>181</v>
       </c>
       <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
         <v>188</v>
       </c>
-      <c r="E1" t="s">
-        <v>189</v>
-      </c>
       <c r="G1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -20329,7 +21039,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -20349,7 +21059,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -20375,6 +21085,288 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <f>B15*2254.6</f>
+        <v>509990.51999999996</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:E2" si="0">C15*2254.6</f>
+        <v>509990.51999999996</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>509990.51999999996</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>509990.51999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:E8" si="1">B16*2254.6</f>
+        <v>1297071.3799999999</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>1297071.3799999999</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>1297071.3799999999</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>1297071.3799999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>693064.03999999992</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>693064.03999999992</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>693064.03999999992</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>693064.03999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>741988.86</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>741988.86</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>741988.86</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>741988.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>900036.32</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>900036.32</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>900036.32</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>900036.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>994053.1399999999</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>994053.1399999999</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>994053.1399999999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>994053.1399999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>865090.0199999999</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>865090.0199999999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>865090.0199999999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>865090.0199999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>226.2</v>
+      </c>
+      <c r="C15">
+        <v>226.2</v>
+      </c>
+      <c r="D15">
+        <v>226.2</v>
+      </c>
+      <c r="E15">
+        <v>226.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>575.29999999999995</v>
+      </c>
+      <c r="C16">
+        <v>575.29999999999995</v>
+      </c>
+      <c r="D16">
+        <v>575.29999999999995</v>
+      </c>
+      <c r="E16">
+        <v>575.29999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>307.39999999999998</v>
+      </c>
+      <c r="C17">
+        <v>307.39999999999998</v>
+      </c>
+      <c r="D17">
+        <v>307.39999999999998</v>
+      </c>
+      <c r="E17">
+        <v>307.39999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>329.1</v>
+      </c>
+      <c r="C18">
+        <v>329.1</v>
+      </c>
+      <c r="D18">
+        <v>329.1</v>
+      </c>
+      <c r="E18">
+        <v>329.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>399.2</v>
+      </c>
+      <c r="C19">
+        <v>399.2</v>
+      </c>
+      <c r="D19">
+        <v>399.2</v>
+      </c>
+      <c r="E19">
+        <v>399.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>440.9</v>
+      </c>
+      <c r="C20">
+        <v>440.9</v>
+      </c>
+      <c r="D20">
+        <v>440.9</v>
+      </c>
+      <c r="E20">
+        <v>440.9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>383.7</v>
+      </c>
+      <c r="C21">
+        <v>383.7</v>
+      </c>
+      <c r="D21">
+        <v>383.7</v>
+      </c>
+      <c r="E21">
+        <v>383.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
@@ -20547,7 +21539,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -20629,7 +21621,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -20670,7 +21662,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -20796,12 +21788,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20817,16 +21809,16 @@
         <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F1" t="s">
         <v>148</v>
       </c>
       <c r="G1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I1" t="s">
         <v>124</v>
@@ -20837,31 +21829,31 @@
         <v>91</v>
       </c>
       <c r="B2">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="C2">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="D2">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="E2">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="F2">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="G2">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="H2">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="I2">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -20869,89 +21861,89 @@
         <v>181</v>
       </c>
       <c r="B3">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="C3">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="D3">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="E3">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="F3">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="G3">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="H3">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="I3">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="C4">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="D4">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="E4">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="F4">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="G4">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="H4">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="I4">
-        <v>60000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="C5">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="D5">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="E5">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="F5">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="G5">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="H5">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="I5">
-        <v>60000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -20959,7 +21951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -20977,10 +21969,10 @@
         <v>181</v>
       </c>
       <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
         <v>188</v>
-      </c>
-      <c r="E1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -21040,10 +22032,10 @@
         <v>181</v>
       </c>
       <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
         <v>188</v>
-      </c>
-      <c r="E1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -21090,10 +22082,10 @@
         <v>181</v>
       </c>
       <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
         <v>188</v>
-      </c>
-      <c r="E1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -21104,7 +22096,7 @@
         <v>2500000</v>
       </c>
       <c r="C2" s="32">
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
       <c r="D2" s="32">
         <v>2500000</v>
@@ -21136,15 +22128,15 @@
         <v>181</v>
       </c>
       <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
         <v>188</v>
-      </c>
-      <c r="E1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -21185,10 +22177,10 @@
         <v>181</v>
       </c>
       <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
         <v>188</v>
-      </c>
-      <c r="E1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -21231,10 +22223,10 @@
         <v>181</v>
       </c>
       <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
         <v>188</v>
-      </c>
-      <c r="E1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -21277,10 +22269,10 @@
         <v>181</v>
       </c>
       <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
         <v>188</v>
-      </c>
-      <c r="E1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -21443,76 +22435,76 @@
         <v>181</v>
       </c>
       <c r="Z1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL1" t="s">
         <v>188</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AM1" t="s">
         <v>188</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AN1" t="s">
         <v>188</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AO1" t="s">
         <v>188</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AP1" t="s">
         <v>188</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AQ1" t="s">
         <v>188</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AR1" t="s">
         <v>188</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AS1" t="s">
         <v>188</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AT1" t="s">
         <v>188</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AU1" t="s">
         <v>188</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AV1" t="s">
         <v>188</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AW1" t="s">
         <v>188</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
@@ -22115,7 +23107,7 @@
     </row>
     <row r="6" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -22415,7 +23407,7 @@
     </row>
     <row r="8" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -22567,7 +23559,7 @@
     </row>
     <row r="9" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -23014,7 +24006,7 @@
     </row>
     <row r="16" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="14.45" x14ac:dyDescent="0.3">
@@ -23022,7 +24014,7 @@
         <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
@@ -23033,7 +24025,7 @@
         <v>3574</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
@@ -23054,7 +24046,7 @@
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D26">
         <v>917</v>
@@ -23070,7 +24062,7 @@
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D28">
         <v>600</v>
@@ -23078,7 +24070,7 @@
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D29">
         <v>7598</v>

--- a/dairyclimatemodel2/data/household_data.xlsx
+++ b/dairyclimatemodel2/data/household_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="898"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="898" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="7" r:id="rId1"/>
@@ -675,7 +675,7 @@
     <t>general expenses per head of livestock</t>
   </si>
   <si>
-    <t>maintExpenses_old!A1</t>
+    <t>maintExpenses!A1</t>
   </si>
 </sst>
 </file>
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,10 +1436,10 @@
         <v>209</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -5247,7 +5247,7 @@
   <dimension ref="A1:N197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5271,7 +5271,8 @@
         <v>85</v>
       </c>
       <c r="C2">
-        <v>266</v>
+        <f>G11*M11</f>
+        <v>1193.5</v>
       </c>
       <c r="F2" t="s">
         <v>120</v>
@@ -5285,7 +5286,8 @@
         <v>86</v>
       </c>
       <c r="C3">
-        <v>266</v>
+        <f>G11*M11</f>
+        <v>1193.5</v>
       </c>
       <c r="F3" t="s">
         <v>208</v>
@@ -5299,7 +5301,8 @@
         <v>84</v>
       </c>
       <c r="C4">
-        <v>2090</v>
+        <f>G11*M12</f>
+        <v>9377.5</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -5310,7 +5313,8 @@
         <v>83</v>
       </c>
       <c r="C5">
-        <v>2090</v>
+        <f>G11*M12</f>
+        <v>9377.5</v>
       </c>
       <c r="F5" t="s">
         <v>121</v>
@@ -5324,7 +5328,8 @@
         <v>75</v>
       </c>
       <c r="C6">
-        <v>2660</v>
+        <f>G11*M13</f>
+        <v>11935</v>
       </c>
       <c r="F6" t="s">
         <v>122</v>
@@ -5338,7 +5343,8 @@
         <v>82</v>
       </c>
       <c r="C7">
-        <v>2660</v>
+        <f>G11*M13</f>
+        <v>11935</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -5349,7 +5355,7 @@
         <v>80</v>
       </c>
       <c r="C8">
-        <v>266</v>
+        <v>1193.5</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -5360,7 +5366,7 @@
         <v>81</v>
       </c>
       <c r="C9">
-        <v>266</v>
+        <v>1193.5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -5371,7 +5377,7 @@
         <v>79</v>
       </c>
       <c r="C10">
-        <v>2090</v>
+        <v>9377.5</v>
       </c>
       <c r="G10" t="s">
         <v>127</v>
@@ -5394,12 +5400,12 @@
         <v>78</v>
       </c>
       <c r="C11">
-        <v>2090</v>
+        <v>9377.5</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11">
-        <f>1900</f>
-        <v>1900</v>
+        <f>8525</f>
+        <v>8525</v>
       </c>
       <c r="L11" t="s">
         <v>103</v>
@@ -5419,7 +5425,7 @@
         <v>76</v>
       </c>
       <c r="C12">
-        <v>2660</v>
+        <v>11935</v>
       </c>
       <c r="L12" t="s">
         <v>104</v>
@@ -5439,7 +5445,7 @@
         <v>77</v>
       </c>
       <c r="C13">
-        <v>2660</v>
+        <v>11935</v>
       </c>
       <c r="L13" t="s">
         <v>105</v>
@@ -5459,7 +5465,7 @@
         <v>85</v>
       </c>
       <c r="C14">
-        <v>266</v>
+        <v>1193.5</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -5470,7 +5476,7 @@
         <v>86</v>
       </c>
       <c r="C15">
-        <v>266</v>
+        <v>1193.5</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -5481,7 +5487,7 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>2090</v>
+        <v>9377.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5492,7 +5498,7 @@
         <v>83</v>
       </c>
       <c r="C17">
-        <v>2090</v>
+        <v>9377.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5503,7 +5509,7 @@
         <v>75</v>
       </c>
       <c r="C18">
-        <v>2660</v>
+        <v>11935</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5514,7 +5520,7 @@
         <v>82</v>
       </c>
       <c r="C19">
-        <v>2660</v>
+        <v>11935</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5525,7 +5531,7 @@
         <v>80</v>
       </c>
       <c r="C20">
-        <v>266</v>
+        <v>1193.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5536,7 +5542,7 @@
         <v>81</v>
       </c>
       <c r="C21">
-        <v>266</v>
+        <v>1193.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5547,7 +5553,7 @@
         <v>79</v>
       </c>
       <c r="C22">
-        <v>2090</v>
+        <v>9377.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5558,7 +5564,7 @@
         <v>78</v>
       </c>
       <c r="C23">
-        <v>2090</v>
+        <v>9377.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5569,7 +5575,7 @@
         <v>76</v>
       </c>
       <c r="C24">
-        <v>2660</v>
+        <v>11935</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5580,7 +5586,7 @@
         <v>77</v>
       </c>
       <c r="C25">
-        <v>2660</v>
+        <v>11935</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5591,7 +5597,7 @@
         <v>85</v>
       </c>
       <c r="C26">
-        <v>266</v>
+        <v>1193.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5602,7 +5608,7 @@
         <v>86</v>
       </c>
       <c r="C27">
-        <v>266</v>
+        <v>1193.5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5613,7 +5619,7 @@
         <v>84</v>
       </c>
       <c r="C28">
-        <v>2090</v>
+        <v>9377.5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5624,7 +5630,7 @@
         <v>83</v>
       </c>
       <c r="C29">
-        <v>2090</v>
+        <v>9377.5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5635,7 +5641,7 @@
         <v>75</v>
       </c>
       <c r="C30">
-        <v>2660</v>
+        <v>11935</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5646,7 +5652,7 @@
         <v>82</v>
       </c>
       <c r="C31">
-        <v>2660</v>
+        <v>11935</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5657,7 +5663,7 @@
         <v>80</v>
       </c>
       <c r="C32">
-        <v>266</v>
+        <v>1193.5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5668,7 +5674,7 @@
         <v>81</v>
       </c>
       <c r="C33">
-        <v>266</v>
+        <v>1193.5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5679,7 +5685,7 @@
         <v>79</v>
       </c>
       <c r="C34">
-        <v>2090</v>
+        <v>9377.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5690,7 +5696,7 @@
         <v>78</v>
       </c>
       <c r="C35">
-        <v>2090</v>
+        <v>9377.5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5701,7 +5707,7 @@
         <v>76</v>
       </c>
       <c r="C36">
-        <v>2660</v>
+        <v>11935</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5712,7 +5718,7 @@
         <v>77</v>
       </c>
       <c r="C37">
-        <v>2660</v>
+        <v>11935</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5723,7 +5729,7 @@
         <v>85</v>
       </c>
       <c r="C38">
-        <v>266</v>
+        <v>1193.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5734,7 +5740,7 @@
         <v>86</v>
       </c>
       <c r="C39">
-        <v>266</v>
+        <v>1193.5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5745,7 +5751,7 @@
         <v>84</v>
       </c>
       <c r="C40">
-        <v>2090</v>
+        <v>9377.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5756,7 +5762,7 @@
         <v>83</v>
       </c>
       <c r="C41">
-        <v>2090</v>
+        <v>9377.5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5767,7 +5773,7 @@
         <v>75</v>
       </c>
       <c r="C42">
-        <v>2660</v>
+        <v>11935</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5778,7 +5784,7 @@
         <v>82</v>
       </c>
       <c r="C43">
-        <v>2660</v>
+        <v>11935</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5789,7 +5795,7 @@
         <v>80</v>
       </c>
       <c r="C44">
-        <v>266</v>
+        <v>1193.5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5800,7 +5806,7 @@
         <v>81</v>
       </c>
       <c r="C45">
-        <v>266</v>
+        <v>1193.5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5811,7 +5817,7 @@
         <v>79</v>
       </c>
       <c r="C46">
-        <v>2090</v>
+        <v>9377.5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5822,7 +5828,7 @@
         <v>78</v>
       </c>
       <c r="C47">
-        <v>2090</v>
+        <v>9377.5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5833,7 +5839,7 @@
         <v>76</v>
       </c>
       <c r="C48">
-        <v>2660</v>
+        <v>11935</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5844,7 +5850,7 @@
         <v>77</v>
       </c>
       <c r="C49">
-        <v>2660</v>
+        <v>11935</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -9239,7 +9245,7 @@
   <dimension ref="A1:O433"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11670,7 +11676,7 @@
         <v>6</v>
       </c>
       <c r="F110" s="20">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="G110" s="20">
         <v>1.4</v>
@@ -11693,7 +11699,7 @@
         <v>6</v>
       </c>
       <c r="F111" s="20">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G111" s="20">
         <v>0.35</v>
@@ -11716,7 +11722,7 @@
         <v>6</v>
       </c>
       <c r="F112" s="20">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G112" s="20">
         <v>0.35</v>
@@ -11739,7 +11745,7 @@
         <v>6</v>
       </c>
       <c r="F113" s="20">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="G113" s="20">
         <v>7.4999999999999997E-2</v>
@@ -11762,7 +11768,7 @@
         <v>6</v>
       </c>
       <c r="F114" s="20">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G114" s="20">
         <v>0.8</v>
@@ -11785,7 +11791,7 @@
         <v>6</v>
       </c>
       <c r="F115" s="20">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="G115" s="20">
         <v>7.0000000000000007E-2</v>
@@ -11808,7 +11814,7 @@
         <v>6</v>
       </c>
       <c r="F116" s="20">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G116" s="20">
         <v>1.4</v>
@@ -11832,7 +11838,7 @@
         <v>6</v>
       </c>
       <c r="F117" s="20">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G117" s="20">
         <v>0.35</v>
@@ -11856,7 +11862,7 @@
         <v>6</v>
       </c>
       <c r="F118" s="20">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G118" s="20">
         <v>0.35</v>
@@ -11880,7 +11886,7 @@
         <v>6</v>
       </c>
       <c r="F119" s="20">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G119" s="20">
         <v>7.4999999999999997E-2</v>
@@ -11904,7 +11910,7 @@
         <v>6</v>
       </c>
       <c r="F120" s="20">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G120" s="20">
         <v>0.8</v>
@@ -18188,7 +18194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
@@ -21955,7 +21961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
@@ -22191,7 +22197,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -22237,7 +22243,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>2</v>

--- a/dairyclimatemodel2/data/household_data.xlsx
+++ b/dairyclimatemodel2/data/household_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="898" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="898" firstSheet="2" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="7" r:id="rId1"/>
@@ -24,9 +24,8 @@
     <sheet name="maintexpenses_old" sheetId="25" r:id="rId15"/>
     <sheet name="mortality" sheetId="24" r:id="rId16"/>
     <sheet name="crop_price" sheetId="34" r:id="rId17"/>
-    <sheet name="crop_labour" sheetId="35" r:id="rId18"/>
-    <sheet name="crop_costs" sheetId="36" r:id="rId19"/>
-    <sheet name="labour_rate" sheetId="38" r:id="rId20"/>
+    <sheet name="crop_costs" sheetId="36" r:id="rId18"/>
+    <sheet name="labour_rate" sheetId="38" r:id="rId19"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="153">
   <si>
     <t>par</t>
   </si>
@@ -310,9 +309,6 @@
     <t>crop_price</t>
   </si>
   <si>
-    <t>crop_labour</t>
-  </si>
-  <si>
     <t>crop_costs</t>
   </si>
   <si>
@@ -353,9 +349,6 @@
   </si>
   <si>
     <t>crop_costs!A1</t>
-  </si>
-  <si>
-    <t>crop_labour!A1</t>
   </si>
   <si>
     <t>crop_price!A1</t>
@@ -500,6 +493,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>maintexpenses_old!A1</t>
   </si>
 </sst>
 </file>
@@ -878,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -886,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +918,7 @@
         <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -939,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -959,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -979,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1002,7 +998,7 @@
         <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1022,7 +1018,7 @@
         <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1042,7 +1038,7 @@
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1062,7 +1058,7 @@
         <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1079,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1102,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1122,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1142,7 +1138,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1159,36 +1155,36 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1199,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1214,15 +1210,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1234,44 +1230,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s">
+        <v>148</v>
+      </c>
+      <c r="H77">
         <v>2</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21">
+      <c r="I77">
         <v>2</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
+      <c r="J77">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1341,7 +1337,7 @@
         <v>38</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>53</v>
@@ -1444,14 +1440,14 @@
         <v>37.755000000000003</v>
       </c>
       <c r="R4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T4">
         <f>47.31-5.36</f>
         <v>41.95</v>
       </c>
       <c r="V4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -1548,7 +1544,7 @@
         <v>37.755000000000003</v>
       </c>
       <c r="R6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T6">
         <f>T4/T5</f>
@@ -1599,7 +1595,7 @@
         <v>37.755000000000003</v>
       </c>
       <c r="R7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T7" s="5">
         <f>T6*4</f>
@@ -3095,13 +3091,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
         <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3116,7 +3112,7 @@
         <v>1.5</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3227,7 +3223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3271,7 +3267,7 @@
         <v>1193.5</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3440,7 +3436,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -3451,7 +3447,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
@@ -3462,7 +3458,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
@@ -3473,7 +3469,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -3484,7 +3480,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -3495,7 +3491,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
@@ -3506,7 +3502,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
@@ -3517,7 +3513,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
@@ -3528,7 +3524,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
@@ -3539,7 +3535,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
@@ -3550,7 +3546,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
@@ -3561,7 +3557,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
@@ -3572,7 +3568,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
@@ -3583,7 +3579,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
@@ -3594,7 +3590,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
@@ -3605,7 +3601,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
@@ -3616,7 +3612,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -3627,7 +3623,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -3638,7 +3634,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
@@ -3649,7 +3645,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
@@ -3660,7 +3656,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -3671,7 +3667,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
@@ -3682,7 +3678,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -3693,7 +3689,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -3704,7 +3700,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
         <v>45</v>
@@ -3715,7 +3711,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
@@ -3726,7 +3722,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
@@ -3737,7 +3733,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -3748,7 +3744,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -3759,7 +3755,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -3770,7 +3766,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
         <v>40</v>
@@ -3781,7 +3777,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
         <v>41</v>
@@ -3792,7 +3788,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
@@ -3803,7 +3799,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
         <v>38</v>
@@ -3814,7 +3810,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
         <v>36</v>
@@ -3825,7 +3821,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -4235,7 +4231,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
@@ -4361,7 +4357,7 @@
     </row>
     <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>54</v>
@@ -4372,7 +4368,7 @@
     </row>
     <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>55</v>
@@ -4383,7 +4379,7 @@
     </row>
     <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>56</v>
@@ -4394,7 +4390,7 @@
     </row>
     <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>57</v>
@@ -4405,7 +4401,7 @@
     </row>
     <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>58</v>
@@ -4416,7 +4412,7 @@
     </row>
     <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>59</v>
@@ -4427,7 +4423,7 @@
     </row>
     <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>68</v>
@@ -4438,7 +4434,7 @@
     </row>
     <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>69</v>
@@ -4449,7 +4445,7 @@
     </row>
     <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>70</v>
@@ -4460,7 +4456,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>33</v>
@@ -4471,7 +4467,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>60</v>
@@ -4482,7 +4478,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>54</v>
@@ -4493,7 +4489,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>55</v>
@@ -4504,7 +4500,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>56</v>
@@ -4515,7 +4511,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>57</v>
@@ -4526,7 +4522,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>58</v>
@@ -4537,7 +4533,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>59</v>
@@ -4548,7 +4544,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>68</v>
@@ -4559,7 +4555,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>69</v>
@@ -4570,7 +4566,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>70</v>
@@ -4581,7 +4577,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>33</v>
@@ -4592,7 +4588,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>60</v>
@@ -4603,7 +4599,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>54</v>
@@ -4614,7 +4610,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>55</v>
@@ -4625,7 +4621,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>56</v>
@@ -4636,7 +4632,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>57</v>
@@ -4647,7 +4643,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>58</v>
@@ -4658,7 +4654,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>59</v>
@@ -4669,7 +4665,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>68</v>
@@ -4680,7 +4676,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>69</v>
@@ -4691,7 +4687,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>70</v>
@@ -4702,7 +4698,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>33</v>
@@ -4713,7 +4709,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>60</v>
@@ -4731,8 +4727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O433"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4768,7 +4764,7 @@
         <v>49</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -7148,7 +7144,7 @@
     </row>
     <row r="110" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B110" t="s">
         <v>35</v>
@@ -7171,7 +7167,7 @@
     </row>
     <row r="111" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B111" t="s">
         <v>46</v>
@@ -7194,7 +7190,7 @@
     </row>
     <row r="112" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B112" t="s">
         <v>45</v>
@@ -7217,7 +7213,7 @@
     </row>
     <row r="113" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B113" t="s">
         <v>43</v>
@@ -7240,7 +7236,7 @@
     </row>
     <row r="114" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B114" t="s">
         <v>44</v>
@@ -7263,7 +7259,7 @@
     </row>
     <row r="115" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B115" t="s">
         <v>42</v>
@@ -7286,7 +7282,7 @@
     </row>
     <row r="116" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B116" t="s">
         <v>36</v>
@@ -7301,7 +7297,7 @@
         <v>6</v>
       </c>
       <c r="F116" s="11">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="G116" s="11">
         <v>1.4</v>
@@ -7310,7 +7306,7 @@
     </row>
     <row r="117" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B117" t="s">
         <v>41</v>
@@ -7325,7 +7321,7 @@
         <v>6</v>
       </c>
       <c r="F117" s="11">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="G117" s="11">
         <v>0.35</v>
@@ -7334,7 +7330,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B118" t="s">
         <v>40</v>
@@ -7349,7 +7345,7 @@
         <v>6</v>
       </c>
       <c r="F118" s="11">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="G118" s="11">
         <v>0.35</v>
@@ -7358,7 +7354,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B119" t="s">
         <v>38</v>
@@ -7373,7 +7369,7 @@
         <v>6</v>
       </c>
       <c r="F119" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.12</v>
       </c>
       <c r="G119" s="11">
         <v>7.4999999999999997E-2</v>
@@ -7382,7 +7378,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
         <v>39</v>
@@ -7397,7 +7393,7 @@
         <v>6</v>
       </c>
       <c r="F120" s="11">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="G120" s="11">
         <v>0.8</v>
@@ -7406,7 +7402,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B121" t="s">
         <v>37</v>
@@ -7427,7 +7423,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
         <v>35</v>
@@ -7447,7 +7443,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>46</v>
@@ -7467,7 +7463,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>45</v>
@@ -7487,7 +7483,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
         <v>43</v>
@@ -7507,7 +7503,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
         <v>44</v>
@@ -7527,7 +7523,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B127" t="s">
         <v>42</v>
@@ -7547,7 +7543,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B128" t="s">
         <v>36</v>
@@ -7567,7 +7563,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B129" t="s">
         <v>41</v>
@@ -7587,7 +7583,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B130" t="s">
         <v>40</v>
@@ -7607,7 +7603,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B131" t="s">
         <v>38</v>
@@ -7627,7 +7623,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B132" t="s">
         <v>39</v>
@@ -7647,7 +7643,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B133" t="s">
         <v>37</v>
@@ -7667,7 +7663,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B134" t="s">
         <v>35</v>
@@ -7687,7 +7683,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B135" t="s">
         <v>46</v>
@@ -7707,7 +7703,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B136" t="s">
         <v>45</v>
@@ -7727,7 +7723,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B137" t="s">
         <v>43</v>
@@ -7747,7 +7743,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B138" t="s">
         <v>44</v>
@@ -7767,7 +7763,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B139" t="s">
         <v>42</v>
@@ -7787,7 +7783,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B140" t="s">
         <v>36</v>
@@ -7807,7 +7803,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B141" t="s">
         <v>41</v>
@@ -7827,7 +7823,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B142" t="s">
         <v>40</v>
@@ -7847,7 +7843,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B143" t="s">
         <v>38</v>
@@ -7867,7 +7863,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B144" t="s">
         <v>39</v>
@@ -7887,7 +7883,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B145" t="s">
         <v>37</v>
@@ -7907,7 +7903,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B146" t="s">
         <v>35</v>
@@ -7927,7 +7923,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B147" t="s">
         <v>46</v>
@@ -7947,7 +7943,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B148" t="s">
         <v>45</v>
@@ -7967,7 +7963,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B149" t="s">
         <v>43</v>
@@ -7987,7 +7983,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B150" t="s">
         <v>44</v>
@@ -8007,7 +8003,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B151" t="s">
         <v>42</v>
@@ -8027,7 +8023,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B152" t="s">
         <v>36</v>
@@ -8047,7 +8043,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B153" t="s">
         <v>41</v>
@@ -8067,7 +8063,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B154" t="s">
         <v>40</v>
@@ -8087,7 +8083,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B155" t="s">
         <v>38</v>
@@ -8107,7 +8103,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B156" t="s">
         <v>39</v>
@@ -8127,7 +8123,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B157" t="s">
         <v>37</v>
@@ -8147,7 +8143,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B158" t="s">
         <v>35</v>
@@ -8167,7 +8163,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B159" t="s">
         <v>46</v>
@@ -8187,7 +8183,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B160" t="s">
         <v>45</v>
@@ -8207,7 +8203,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B161" t="s">
         <v>43</v>
@@ -8227,7 +8223,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B162" t="s">
         <v>44</v>
@@ -8247,7 +8243,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B163" t="s">
         <v>42</v>
@@ -8267,7 +8263,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B164" t="s">
         <v>36</v>
@@ -8287,7 +8283,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B165" t="s">
         <v>41</v>
@@ -8307,7 +8303,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B166" t="s">
         <v>40</v>
@@ -8327,7 +8323,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B167" t="s">
         <v>38</v>
@@ -8347,7 +8343,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B168" t="s">
         <v>39</v>
@@ -8367,7 +8363,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B169" t="s">
         <v>37</v>
@@ -8387,7 +8383,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B170" t="s">
         <v>35</v>
@@ -8407,7 +8403,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B171" t="s">
         <v>46</v>
@@ -8427,7 +8423,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B172" t="s">
         <v>45</v>
@@ -8447,7 +8443,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B173" t="s">
         <v>43</v>
@@ -8467,7 +8463,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B174" t="s">
         <v>44</v>
@@ -8487,7 +8483,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B175" t="s">
         <v>42</v>
@@ -8507,7 +8503,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B176" t="s">
         <v>36</v>
@@ -8527,7 +8523,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B177" t="s">
         <v>41</v>
@@ -8547,7 +8543,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B178" t="s">
         <v>40</v>
@@ -8567,7 +8563,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B179" t="s">
         <v>38</v>
@@ -8587,7 +8583,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B180" t="s">
         <v>39</v>
@@ -8607,7 +8603,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B181" t="s">
         <v>37</v>
@@ -8627,7 +8623,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B182" t="s">
         <v>35</v>
@@ -8647,7 +8643,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B183" t="s">
         <v>46</v>
@@ -8667,7 +8663,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B184" t="s">
         <v>45</v>
@@ -8687,7 +8683,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B185" t="s">
         <v>43</v>
@@ -8707,7 +8703,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B186" t="s">
         <v>44</v>
@@ -8727,7 +8723,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B187" t="s">
         <v>42</v>
@@ -8747,7 +8743,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B188" t="s">
         <v>36</v>
@@ -8767,7 +8763,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B189" t="s">
         <v>41</v>
@@ -8787,7 +8783,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B190" t="s">
         <v>40</v>
@@ -8807,7 +8803,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B191" t="s">
         <v>38</v>
@@ -8827,7 +8823,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B192" t="s">
         <v>39</v>
@@ -8847,7 +8843,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B193" t="s">
         <v>37</v>
@@ -8867,7 +8863,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B194" t="s">
         <v>35</v>
@@ -8887,7 +8883,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B195" t="s">
         <v>46</v>
@@ -8907,7 +8903,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B196" t="s">
         <v>45</v>
@@ -8927,7 +8923,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B197" t="s">
         <v>43</v>
@@ -8947,7 +8943,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B198" t="s">
         <v>44</v>
@@ -8967,7 +8963,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B199" t="s">
         <v>42</v>
@@ -8987,7 +8983,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B200" t="s">
         <v>36</v>
@@ -9007,7 +9003,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B201" t="s">
         <v>41</v>
@@ -9027,7 +9023,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B202" t="s">
         <v>40</v>
@@ -9047,7 +9043,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B203" t="s">
         <v>38</v>
@@ -9067,7 +9063,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B204" t="s">
         <v>39</v>
@@ -9087,7 +9083,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B205" t="s">
         <v>37</v>
@@ -9107,7 +9103,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B206" t="s">
         <v>35</v>
@@ -9127,7 +9123,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B207" t="s">
         <v>46</v>
@@ -9147,7 +9143,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B208" t="s">
         <v>45</v>
@@ -9167,7 +9163,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B209" t="s">
         <v>43</v>
@@ -9187,7 +9183,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B210" t="s">
         <v>44</v>
@@ -9207,7 +9203,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B211" t="s">
         <v>42</v>
@@ -9227,7 +9223,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B212" t="s">
         <v>36</v>
@@ -9247,7 +9243,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B213" t="s">
         <v>41</v>
@@ -9267,7 +9263,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B214" t="s">
         <v>40</v>
@@ -9287,7 +9283,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B215" t="s">
         <v>38</v>
@@ -9307,7 +9303,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B216" t="s">
         <v>39</v>
@@ -9327,7 +9323,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B217" t="s">
         <v>37</v>
@@ -9347,7 +9343,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B218" t="s">
         <v>35</v>
@@ -9367,7 +9363,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B219" t="s">
         <v>46</v>
@@ -9387,7 +9383,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B220" t="s">
         <v>45</v>
@@ -9407,7 +9403,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B221" t="s">
         <v>43</v>
@@ -9427,7 +9423,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B222" t="s">
         <v>44</v>
@@ -9447,7 +9443,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B223" t="s">
         <v>42</v>
@@ -9467,7 +9463,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B224" t="s">
         <v>36</v>
@@ -9487,7 +9483,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B225" t="s">
         <v>41</v>
@@ -9507,7 +9503,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B226" t="s">
         <v>40</v>
@@ -9527,7 +9523,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B227" t="s">
         <v>38</v>
@@ -9547,7 +9543,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B228" t="s">
         <v>39</v>
@@ -9567,7 +9563,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B229" t="s">
         <v>37</v>
@@ -9587,7 +9583,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B230" t="s">
         <v>35</v>
@@ -9607,7 +9603,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B231" t="s">
         <v>46</v>
@@ -9627,7 +9623,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B232" t="s">
         <v>45</v>
@@ -9647,7 +9643,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B233" t="s">
         <v>43</v>
@@ -9667,7 +9663,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B234" t="s">
         <v>44</v>
@@ -9687,7 +9683,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B235" t="s">
         <v>42</v>
@@ -9707,7 +9703,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B236" t="s">
         <v>36</v>
@@ -9727,7 +9723,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B237" t="s">
         <v>41</v>
@@ -9747,7 +9743,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B238" t="s">
         <v>40</v>
@@ -9767,7 +9763,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B239" t="s">
         <v>38</v>
@@ -9787,7 +9783,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B240" t="s">
         <v>39</v>
@@ -9807,7 +9803,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B241" t="s">
         <v>37</v>
@@ -9827,7 +9823,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B242" t="s">
         <v>35</v>
@@ -9847,7 +9843,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B243" t="s">
         <v>46</v>
@@ -9867,7 +9863,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B244" t="s">
         <v>45</v>
@@ -9887,7 +9883,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B245" t="s">
         <v>43</v>
@@ -9907,7 +9903,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B246" t="s">
         <v>44</v>
@@ -9927,7 +9923,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B247" t="s">
         <v>42</v>
@@ -9947,7 +9943,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B248" t="s">
         <v>36</v>
@@ -9967,7 +9963,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B249" t="s">
         <v>41</v>
@@ -9987,7 +9983,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B250" t="s">
         <v>40</v>
@@ -10007,7 +10003,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B251" t="s">
         <v>38</v>
@@ -10027,7 +10023,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B252" t="s">
         <v>39</v>
@@ -10047,7 +10043,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B253" t="s">
         <v>37</v>
@@ -10067,7 +10063,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B254" t="s">
         <v>35</v>
@@ -10087,7 +10083,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B255" t="s">
         <v>46</v>
@@ -10107,7 +10103,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B256" t="s">
         <v>45</v>
@@ -10127,7 +10123,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B257" t="s">
         <v>43</v>
@@ -10147,7 +10143,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B258" t="s">
         <v>44</v>
@@ -10167,7 +10163,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B259" t="s">
         <v>42</v>
@@ -10187,7 +10183,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B260" t="s">
         <v>36</v>
@@ -10207,7 +10203,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B261" t="s">
         <v>41</v>
@@ -10227,7 +10223,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B262" t="s">
         <v>40</v>
@@ -10247,7 +10243,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B263" t="s">
         <v>38</v>
@@ -10267,7 +10263,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B264" t="s">
         <v>39</v>
@@ -10287,7 +10283,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B265" t="s">
         <v>37</v>
@@ -10307,7 +10303,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B266" t="s">
         <v>35</v>
@@ -10327,7 +10323,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B267" t="s">
         <v>46</v>
@@ -10347,7 +10343,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B268" t="s">
         <v>45</v>
@@ -10367,7 +10363,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B269" t="s">
         <v>43</v>
@@ -10387,7 +10383,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B270" t="s">
         <v>44</v>
@@ -10407,7 +10403,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B271" t="s">
         <v>42</v>
@@ -10427,7 +10423,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B272" t="s">
         <v>36</v>
@@ -10447,7 +10443,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B273" t="s">
         <v>41</v>
@@ -10467,7 +10463,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B274" t="s">
         <v>40</v>
@@ -10487,7 +10483,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B275" t="s">
         <v>38</v>
@@ -10507,7 +10503,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B276" t="s">
         <v>39</v>
@@ -10527,7 +10523,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B277" t="s">
         <v>37</v>
@@ -10547,7 +10543,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B278" t="s">
         <v>35</v>
@@ -10567,7 +10563,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B279" t="s">
         <v>46</v>
@@ -10587,7 +10583,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B280" t="s">
         <v>45</v>
@@ -10607,7 +10603,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B281" t="s">
         <v>43</v>
@@ -10627,7 +10623,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B282" t="s">
         <v>44</v>
@@ -10647,7 +10643,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B283" t="s">
         <v>42</v>
@@ -10667,7 +10663,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B284" t="s">
         <v>36</v>
@@ -10687,7 +10683,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B285" t="s">
         <v>41</v>
@@ -10707,7 +10703,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B286" t="s">
         <v>40</v>
@@ -10727,7 +10723,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B287" t="s">
         <v>38</v>
@@ -10747,7 +10743,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B288" t="s">
         <v>39</v>
@@ -10767,7 +10763,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B289" t="s">
         <v>37</v>
@@ -10787,7 +10783,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B290" t="s">
         <v>35</v>
@@ -10807,7 +10803,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B291" t="s">
         <v>46</v>
@@ -10827,7 +10823,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B292" t="s">
         <v>45</v>
@@ -10847,7 +10843,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B293" t="s">
         <v>43</v>
@@ -10867,7 +10863,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B294" t="s">
         <v>44</v>
@@ -10887,7 +10883,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B295" t="s">
         <v>42</v>
@@ -10907,7 +10903,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B296" t="s">
         <v>36</v>
@@ -10927,7 +10923,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B297" t="s">
         <v>41</v>
@@ -10947,7 +10943,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B298" t="s">
         <v>40</v>
@@ -10967,7 +10963,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B299" t="s">
         <v>38</v>
@@ -10987,7 +10983,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B300" t="s">
         <v>39</v>
@@ -11007,7 +11003,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B301" t="s">
         <v>37</v>
@@ -11027,7 +11023,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B302" t="s">
         <v>35</v>
@@ -11047,7 +11043,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B303" t="s">
         <v>46</v>
@@ -11067,7 +11063,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B304" t="s">
         <v>45</v>
@@ -11087,7 +11083,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B305" t="s">
         <v>43</v>
@@ -11107,7 +11103,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B306" t="s">
         <v>44</v>
@@ -11127,7 +11123,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B307" t="s">
         <v>42</v>
@@ -11147,7 +11143,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B308" t="s">
         <v>36</v>
@@ -11167,7 +11163,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B309" t="s">
         <v>41</v>
@@ -11187,7 +11183,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B310" t="s">
         <v>40</v>
@@ -11207,7 +11203,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B311" t="s">
         <v>38</v>
@@ -11227,7 +11223,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B312" t="s">
         <v>39</v>
@@ -11247,7 +11243,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B313" t="s">
         <v>37</v>
@@ -11267,7 +11263,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B314" t="s">
         <v>35</v>
@@ -11287,7 +11283,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B315" t="s">
         <v>46</v>
@@ -11307,7 +11303,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B316" t="s">
         <v>45</v>
@@ -11327,7 +11323,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B317" t="s">
         <v>43</v>
@@ -11347,7 +11343,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B318" t="s">
         <v>44</v>
@@ -11367,7 +11363,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B319" t="s">
         <v>42</v>
@@ -11387,7 +11383,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B320" t="s">
         <v>36</v>
@@ -11407,7 +11403,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B321" t="s">
         <v>41</v>
@@ -11427,7 +11423,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B322" t="s">
         <v>40</v>
@@ -11447,7 +11443,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B323" t="s">
         <v>38</v>
@@ -11467,7 +11463,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B324" t="s">
         <v>39</v>
@@ -11487,7 +11483,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B325" t="s">
         <v>37</v>
@@ -11507,7 +11503,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B326" t="s">
         <v>35</v>
@@ -11527,7 +11523,7 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B327" t="s">
         <v>46</v>
@@ -11547,7 +11543,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B328" t="s">
         <v>45</v>
@@ -11567,7 +11563,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B329" t="s">
         <v>43</v>
@@ -11587,7 +11583,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B330" t="s">
         <v>44</v>
@@ -11607,7 +11603,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B331" t="s">
         <v>42</v>
@@ -11627,7 +11623,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B332" t="s">
         <v>36</v>
@@ -11648,7 +11644,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B333" t="s">
         <v>41</v>
@@ -11669,7 +11665,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B334" t="s">
         <v>40</v>
@@ -11690,7 +11686,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B335" t="s">
         <v>38</v>
@@ -11711,7 +11707,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B336" t="s">
         <v>39</v>
@@ -11732,7 +11728,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B337" t="s">
         <v>37</v>
@@ -11753,7 +11749,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B338" t="s">
         <v>35</v>
@@ -11773,7 +11769,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B339" t="s">
         <v>46</v>
@@ -11793,7 +11789,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B340" t="s">
         <v>45</v>
@@ -11813,7 +11809,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B341" t="s">
         <v>43</v>
@@ -11833,7 +11829,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B342" t="s">
         <v>44</v>
@@ -11853,7 +11849,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B343" t="s">
         <v>42</v>
@@ -11873,7 +11869,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B344" t="s">
         <v>36</v>
@@ -11893,7 +11889,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B345" t="s">
         <v>41</v>
@@ -11913,7 +11909,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B346" t="s">
         <v>40</v>
@@ -11933,7 +11929,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B347" t="s">
         <v>38</v>
@@ -11953,7 +11949,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B348" t="s">
         <v>39</v>
@@ -11973,7 +11969,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B349" t="s">
         <v>37</v>
@@ -11993,7 +11989,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B350" t="s">
         <v>35</v>
@@ -12013,7 +12009,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B351" t="s">
         <v>46</v>
@@ -12033,7 +12029,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B352" t="s">
         <v>45</v>
@@ -12053,7 +12049,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B353" t="s">
         <v>43</v>
@@ -12073,7 +12069,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B354" t="s">
         <v>44</v>
@@ -12093,7 +12089,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B355" t="s">
         <v>42</v>
@@ -12113,7 +12109,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B356" t="s">
         <v>36</v>
@@ -12133,7 +12129,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B357" t="s">
         <v>41</v>
@@ -12153,7 +12149,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B358" t="s">
         <v>40</v>
@@ -12173,7 +12169,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B359" t="s">
         <v>38</v>
@@ -12193,7 +12189,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B360" t="s">
         <v>39</v>
@@ -12213,7 +12209,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B361" t="s">
         <v>37</v>
@@ -12233,7 +12229,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B362" t="s">
         <v>35</v>
@@ -12253,7 +12249,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B363" t="s">
         <v>46</v>
@@ -12273,7 +12269,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B364" t="s">
         <v>45</v>
@@ -12293,7 +12289,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B365" t="s">
         <v>43</v>
@@ -12313,7 +12309,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B366" t="s">
         <v>44</v>
@@ -12333,7 +12329,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B367" t="s">
         <v>42</v>
@@ -12353,7 +12349,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B368" t="s">
         <v>36</v>
@@ -12373,7 +12369,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B369" t="s">
         <v>41</v>
@@ -12393,7 +12389,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B370" t="s">
         <v>40</v>
@@ -12413,7 +12409,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B371" t="s">
         <v>38</v>
@@ -12433,7 +12429,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B372" t="s">
         <v>39</v>
@@ -12453,7 +12449,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B373" t="s">
         <v>37</v>
@@ -12473,7 +12469,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B374" t="s">
         <v>35</v>
@@ -12493,7 +12489,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B375" t="s">
         <v>46</v>
@@ -12513,7 +12509,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B376" t="s">
         <v>45</v>
@@ -12533,7 +12529,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B377" t="s">
         <v>43</v>
@@ -12553,7 +12549,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B378" t="s">
         <v>44</v>
@@ -12573,7 +12569,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B379" t="s">
         <v>42</v>
@@ -12593,7 +12589,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B380" t="s">
         <v>36</v>
@@ -12613,7 +12609,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B381" t="s">
         <v>41</v>
@@ -12633,7 +12629,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B382" t="s">
         <v>40</v>
@@ -12653,7 +12649,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B383" t="s">
         <v>38</v>
@@ -12673,7 +12669,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B384" t="s">
         <v>39</v>
@@ -12693,7 +12689,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B385" t="s">
         <v>37</v>
@@ -12713,7 +12709,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B386" t="s">
         <v>35</v>
@@ -12733,7 +12729,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B387" t="s">
         <v>46</v>
@@ -12753,7 +12749,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B388" t="s">
         <v>45</v>
@@ -12773,7 +12769,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B389" t="s">
         <v>43</v>
@@ -12793,7 +12789,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B390" t="s">
         <v>44</v>
@@ -12813,7 +12809,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B391" t="s">
         <v>42</v>
@@ -12833,7 +12829,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B392" t="s">
         <v>36</v>
@@ -12853,7 +12849,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B393" t="s">
         <v>41</v>
@@ -12873,7 +12869,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B394" t="s">
         <v>40</v>
@@ -12893,7 +12889,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B395" t="s">
         <v>38</v>
@@ -12913,7 +12909,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B396" t="s">
         <v>39</v>
@@ -12933,7 +12929,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B397" t="s">
         <v>37</v>
@@ -12953,7 +12949,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B398" t="s">
         <v>35</v>
@@ -12973,7 +12969,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B399" t="s">
         <v>46</v>
@@ -12993,7 +12989,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B400" t="s">
         <v>45</v>
@@ -13013,7 +13009,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B401" t="s">
         <v>43</v>
@@ -13033,7 +13029,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B402" t="s">
         <v>44</v>
@@ -13053,7 +13049,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B403" t="s">
         <v>42</v>
@@ -13073,7 +13069,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B404" t="s">
         <v>36</v>
@@ -13093,7 +13089,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B405" t="s">
         <v>41</v>
@@ -13113,7 +13109,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B406" t="s">
         <v>40</v>
@@ -13133,7 +13129,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B407" t="s">
         <v>38</v>
@@ -13153,7 +13149,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B408" t="s">
         <v>39</v>
@@ -13173,7 +13169,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B409" t="s">
         <v>37</v>
@@ -13193,7 +13189,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B410" t="s">
         <v>35</v>
@@ -13213,7 +13209,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B411" t="s">
         <v>46</v>
@@ -13233,7 +13229,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B412" t="s">
         <v>45</v>
@@ -13253,7 +13249,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B413" t="s">
         <v>43</v>
@@ -13273,7 +13269,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B414" t="s">
         <v>44</v>
@@ -13293,7 +13289,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B415" t="s">
         <v>42</v>
@@ -13313,7 +13309,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B416" t="s">
         <v>36</v>
@@ -13333,7 +13329,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B417" t="s">
         <v>41</v>
@@ -13353,7 +13349,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B418" t="s">
         <v>40</v>
@@ -13373,7 +13369,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B419" t="s">
         <v>38</v>
@@ -13393,7 +13389,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B420" t="s">
         <v>39</v>
@@ -13413,7 +13409,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B421" t="s">
         <v>37</v>
@@ -13433,7 +13429,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B422" t="s">
         <v>35</v>
@@ -13453,7 +13449,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B423" t="s">
         <v>46</v>
@@ -13473,7 +13469,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B424" t="s">
         <v>45</v>
@@ -13493,7 +13489,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B425" t="s">
         <v>43</v>
@@ -13513,7 +13509,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B426" t="s">
         <v>44</v>
@@ -13533,7 +13529,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B427" t="s">
         <v>42</v>
@@ -13553,7 +13549,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B428" t="s">
         <v>36</v>
@@ -13573,7 +13569,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B429" t="s">
         <v>41</v>
@@ -13593,7 +13589,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B430" t="s">
         <v>40</v>
@@ -13613,7 +13609,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B431" t="s">
         <v>38</v>
@@ -13633,7 +13629,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B432" t="s">
         <v>39</v>
@@ -13653,7 +13649,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B433" t="s">
         <v>37</v>
@@ -13682,7 +13678,7 @@
   <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14386,7 +14382,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
         <v>45</v>
@@ -14404,7 +14400,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
@@ -14422,7 +14418,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
@@ -14440,7 +14436,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -14458,7 +14454,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -14476,7 +14472,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -14494,7 +14490,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
         <v>40</v>
@@ -14511,7 +14507,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
         <v>41</v>
@@ -14528,7 +14524,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
@@ -14545,7 +14541,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
         <v>38</v>
@@ -14562,7 +14558,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s">
         <v>36</v>
@@ -14579,7 +14575,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -14596,7 +14592,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
@@ -14613,7 +14609,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
         <v>46</v>
@@ -14630,7 +14626,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
         <v>44</v>
@@ -14647,7 +14643,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B53" t="s">
         <v>43</v>
@@ -14664,7 +14660,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
         <v>35</v>
@@ -14681,7 +14677,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
         <v>42</v>
@@ -14698,7 +14694,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
         <v>40</v>
@@ -14715,7 +14711,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
         <v>41</v>
@@ -14732,7 +14728,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -14749,7 +14745,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
@@ -14766,7 +14762,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
         <v>36</v>
@@ -14783,7 +14779,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
@@ -14800,7 +14796,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
         <v>45</v>
@@ -14817,7 +14813,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
         <v>46</v>
@@ -14834,7 +14830,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
         <v>44</v>
@@ -14851,7 +14847,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
         <v>43</v>
@@ -14868,7 +14864,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
         <v>35</v>
@@ -14885,7 +14881,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
         <v>42</v>
@@ -14902,7 +14898,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B68" t="s">
         <v>40</v>
@@ -14919,7 +14915,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
         <v>41</v>
@@ -14936,7 +14932,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
         <v>39</v>
@@ -14953,7 +14949,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
         <v>38</v>
@@ -14970,7 +14966,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
         <v>36</v>
@@ -14987,7 +14983,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B73" t="s">
         <v>37</v>
@@ -15004,7 +15000,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s">
         <v>45</v>
@@ -15022,7 +15018,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B75" t="s">
         <v>46</v>
@@ -15040,7 +15036,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
         <v>44</v>
@@ -15058,7 +15054,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
         <v>43</v>
@@ -15076,7 +15072,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B78" t="s">
         <v>35</v>
@@ -15094,7 +15090,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B79" t="s">
         <v>42</v>
@@ -15112,7 +15108,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s">
         <v>40</v>
@@ -15129,7 +15125,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B81" t="s">
         <v>41</v>
@@ -15146,7 +15142,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
         <v>39</v>
@@ -15163,7 +15159,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B83" t="s">
         <v>38</v>
@@ -15180,7 +15176,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B84" t="s">
         <v>36</v>
@@ -15197,7 +15193,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B85" t="s">
         <v>37</v>
@@ -15214,7 +15210,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B86" t="s">
         <v>45</v>
@@ -15231,7 +15227,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B87" t="s">
         <v>46</v>
@@ -15248,7 +15244,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B88" t="s">
         <v>44</v>
@@ -15265,7 +15261,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B89" t="s">
         <v>43</v>
@@ -15282,7 +15278,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
         <v>35</v>
@@ -15299,7 +15295,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
         <v>42</v>
@@ -15316,7 +15312,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
         <v>40</v>
@@ -15333,7 +15329,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s">
         <v>41</v>
@@ -15350,7 +15346,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B94" t="s">
         <v>39</v>
@@ -15367,7 +15363,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B95" t="s">
         <v>38</v>
@@ -15384,7 +15380,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
         <v>36</v>
@@ -15401,7 +15397,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B97" t="s">
         <v>37</v>
@@ -15418,7 +15414,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B98" t="s">
         <v>45</v>
@@ -15435,7 +15431,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B99" t="s">
         <v>46</v>
@@ -15452,7 +15448,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B100" t="s">
         <v>44</v>
@@ -15469,7 +15465,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B101" t="s">
         <v>43</v>
@@ -15486,7 +15482,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B102" t="s">
         <v>35</v>
@@ -15503,7 +15499,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B103" t="s">
         <v>42</v>
@@ -15520,7 +15516,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B104" t="s">
         <v>40</v>
@@ -15537,7 +15533,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B105" t="s">
         <v>41</v>
@@ -15554,7 +15550,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B106" t="s">
         <v>39</v>
@@ -15571,7 +15567,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B107" t="s">
         <v>38</v>
@@ -15588,7 +15584,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B108" t="s">
         <v>36</v>
@@ -15605,7 +15601,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
@@ -15622,7 +15618,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B110" t="s">
         <v>45</v>
@@ -15640,7 +15636,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B111" t="s">
         <v>46</v>
@@ -15658,7 +15654,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B112" t="s">
         <v>44</v>
@@ -15676,7 +15672,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B113" t="s">
         <v>43</v>
@@ -15694,7 +15690,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B114" t="s">
         <v>35</v>
@@ -15712,7 +15708,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B115" t="s">
         <v>42</v>
@@ -15730,7 +15726,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s">
         <v>40</v>
@@ -15747,7 +15743,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B117" t="s">
         <v>41</v>
@@ -15764,7 +15760,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B118" t="s">
         <v>39</v>
@@ -15781,7 +15777,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B119" t="s">
         <v>38</v>
@@ -15798,7 +15794,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B120" t="s">
         <v>36</v>
@@ -15815,7 +15811,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B121" t="s">
         <v>37</v>
@@ -15832,7 +15828,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B122" t="s">
         <v>45</v>
@@ -15849,7 +15845,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B123" t="s">
         <v>46</v>
@@ -15866,7 +15862,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B124" t="s">
         <v>44</v>
@@ -15883,7 +15879,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B125" t="s">
         <v>43</v>
@@ -15900,7 +15896,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
         <v>35</v>
@@ -15917,7 +15913,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B127" t="s">
         <v>42</v>
@@ -15934,7 +15930,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
         <v>40</v>
@@ -15951,7 +15947,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>41</v>
@@ -15968,7 +15964,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
         <v>39</v>
@@ -15985,7 +15981,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
         <v>38</v>
@@ -16002,7 +15998,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B132" t="s">
         <v>36</v>
@@ -16019,7 +16015,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B133" t="s">
         <v>37</v>
@@ -16036,7 +16032,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B134" t="s">
         <v>45</v>
@@ -16053,7 +16049,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B135" t="s">
         <v>46</v>
@@ -16070,7 +16066,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B136" t="s">
         <v>44</v>
@@ -16087,7 +16083,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B137" t="s">
         <v>43</v>
@@ -16104,7 +16100,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B138" t="s">
         <v>35</v>
@@ -16121,7 +16117,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B139" t="s">
         <v>42</v>
@@ -16138,7 +16134,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B140" t="s">
         <v>40</v>
@@ -16155,7 +16151,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B141" t="s">
         <v>41</v>
@@ -16172,7 +16168,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B142" t="s">
         <v>39</v>
@@ -16189,7 +16185,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B143" t="s">
         <v>38</v>
@@ -16206,7 +16202,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B144" t="s">
         <v>36</v>
@@ -16223,7 +16219,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B145" t="s">
         <v>37</v>
@@ -16503,21 +16499,21 @@
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <f>B15*2254.6</f>
@@ -16538,7 +16534,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:E8" si="1">B16*2254.6</f>
@@ -16559,7 +16555,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
@@ -16580,7 +16576,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
@@ -16601,7 +16597,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
@@ -16622,7 +16618,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
@@ -16643,7 +16639,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
@@ -16664,7 +16660,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -16771,428 +16767,6 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -17204,25 +16778,25 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
       <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" t="s">
-        <v>98</v>
-      </c>
       <c r="G1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s">
         <v>75</v>
@@ -17257,12 +16831,12 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -17289,12 +16863,12 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -17321,12 +16895,12 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -17351,6 +16925,74 @@
       </c>
       <c r="I5">
         <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2">
+        <v>3000</v>
+      </c>
+      <c r="C2">
+        <v>3000</v>
+      </c>
+      <c r="D2">
+        <v>3000</v>
+      </c>
+      <c r="E2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3">
+        <v>3000</v>
+      </c>
+      <c r="C3">
+        <v>3000</v>
+      </c>
+      <c r="D3">
+        <v>3000</v>
+      </c>
+      <c r="E3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U31" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -17373,16 +17015,16 @@
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -17402,12 +17044,12 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -17422,12 +17064,12 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -17440,74 +17082,6 @@
       </c>
       <c r="E4">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2">
-        <v>3000</v>
-      </c>
-      <c r="C2">
-        <v>3000</v>
-      </c>
-      <c r="D2">
-        <v>3000</v>
-      </c>
-      <c r="E2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>3000</v>
-      </c>
-      <c r="C3">
-        <v>3000</v>
-      </c>
-      <c r="D3">
-        <v>3000</v>
-      </c>
-      <c r="E3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="31" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U31" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -17530,18 +17104,18 @@
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="18">
         <v>400000</v>
@@ -17580,18 +17154,18 @@
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="18">
         <v>2500000</v>
@@ -17626,18 +17200,18 @@
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -17675,13 +17249,13 @@
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -17692,7 +17266,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -17721,13 +17295,13 @@
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -17767,18 +17341,18 @@
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -17795,7 +17369,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -17812,7 +17386,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>0.25</v>
@@ -17861,7 +17435,7 @@
   <sheetData>
     <row r="1" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>49</v>
@@ -17900,112 +17474,112 @@
         <v>49</v>
       </c>
       <c r="N1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AA1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AB1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AC1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AD1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AE1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AF1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AH1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AI1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AJ1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AK1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AM1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AN1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AO1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AP1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AQ1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AR1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AS1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AT1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AU1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AV1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AW1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
@@ -18156,7 +17730,7 @@
     </row>
     <row r="3" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -18307,7 +17881,7 @@
     </row>
     <row r="4" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4">
         <f>D24/2</f>
@@ -18458,7 +18032,7 @@
     </row>
     <row r="5" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -18608,7 +18182,7 @@
     </row>
     <row r="6" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -18758,7 +18332,7 @@
     </row>
     <row r="7" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -18908,7 +18482,7 @@
     </row>
     <row r="8" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -19060,7 +18634,7 @@
     </row>
     <row r="9" spans="1:49" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -19209,7 +18783,7 @@
     </row>
     <row r="10" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -19507,31 +19081,31 @@
     </row>
     <row r="16" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23">
         <v>3574</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24">
         <v>5104</v>
@@ -19539,7 +19113,7 @@
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25">
         <v>967</v>
@@ -19547,7 +19121,7 @@
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D26">
         <v>917</v>
@@ -19555,7 +19129,7 @@
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27">
         <v>705</v>
@@ -19563,7 +19137,7 @@
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D28">
         <v>600</v>
@@ -19571,7 +19145,7 @@
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D29">
         <v>7598</v>
@@ -19579,7 +19153,7 @@
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
